--- a/results/acl/mbert/results_sentiment.xlsx
+++ b/results/acl/mbert/results_sentiment.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="20">
   <si>
     <t>Language</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Cantonese</t>
   </si>
   <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
     <t>Finnish</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
   </si>
   <si>
     <t>Maltese</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
   </si>
 </sst>
 </file>
@@ -434,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,72 +498,78 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8703047484053863</v>
+        <v>0.8934659090909091</v>
       </c>
       <c r="C2">
-        <v>0.5981573352232459</v>
+        <v>0.6491477272727273</v>
       </c>
       <c r="D2">
-        <v>0.4188518781006378</v>
+        <v>0.8508522727272727</v>
       </c>
       <c r="E2">
-        <v>0.6583982990786676</v>
+        <v>0.7478693181818182</v>
       </c>
       <c r="F2">
-        <v>0.3146704464918498</v>
+        <v>0.7301136363636364</v>
       </c>
       <c r="G2">
-        <v>0.6754075124025514</v>
+        <v>0.7038352272727273</v>
       </c>
       <c r="H2">
-        <v>0.6513111268603827</v>
+        <v>0.7017045454545454</v>
       </c>
       <c r="I2">
-        <v>0.4847625797306875</v>
+        <v>0.5355113636363636</v>
       </c>
       <c r="J2">
-        <v>0.7562012756909993</v>
+        <v>0.4708806818181818</v>
       </c>
       <c r="K2">
-        <v>0.7377746279234585</v>
+        <v>0.7982954545454546</v>
       </c>
       <c r="L2">
-        <v>0.4961020552799433</v>
+        <v>0.6512784090909091</v>
       </c>
       <c r="M2">
-        <v>0.6151665485471297</v>
+        <v>0.5724431818181818</v>
       </c>
       <c r="N2">
-        <v>0.6987951807228916</v>
+        <v>0.5845170454545454</v>
       </c>
       <c r="O2">
-        <v>0.3954642097802977</v>
+        <v>0.7642045454545454</v>
       </c>
       <c r="P2">
-        <v>0.5641389085754784</v>
+        <v>0.7663352272727273</v>
       </c>
       <c r="Q2">
-        <v>0.7576187101346563</v>
+        <v>0.8188920454545454</v>
       </c>
       <c r="R2">
-        <v>0.2473423104181432</v>
+        <v>0.625</v>
       </c>
       <c r="S2">
-        <v>0.5478384124734231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>0.7237215909090909</v>
+      </c>
+      <c r="T2">
+        <v>0.6811079545454546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8040540540540541</v>
+        <v>0.7533783783783784</v>
       </c>
       <c r="C3">
         <v>0.9155405405405406</v>
@@ -575,7 +581,7 @@
         <v>0.8175675675675675</v>
       </c>
       <c r="F3">
-        <v>0.5472972972972973</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="G3">
         <v>0.7736486486486487</v>
@@ -590,39 +596,42 @@
         <v>0.8614864864864865</v>
       </c>
       <c r="K3">
+        <v>0.8277027027027027</v>
+      </c>
+      <c r="L3">
         <v>0.7871621621621622</v>
-      </c>
-      <c r="L3">
-        <v>0.7905405405405406</v>
       </c>
       <c r="M3">
         <v>0.7905405405405406</v>
       </c>
       <c r="N3">
+        <v>0.7331081081081081</v>
+      </c>
+      <c r="O3">
         <v>0.831081081081081</v>
       </c>
-      <c r="O3">
-        <v>0.7195945945945946</v>
-      </c>
       <c r="P3">
-        <v>0.6114864864864865</v>
+        <v>0.6858108108108109</v>
       </c>
       <c r="Q3">
+        <v>0.6891891891891891</v>
+      </c>
+      <c r="R3">
         <v>0.8074324324324325</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.2398648648648649</v>
       </c>
-      <c r="S3">
-        <v>0.7804054054054054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0.5506756756756757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8528557599225557</v>
+        <v>0.6214908034849952</v>
       </c>
       <c r="C4">
         <v>0.6340755082284608</v>
@@ -634,7 +643,7 @@
         <v>0.7047434656340755</v>
       </c>
       <c r="F4">
-        <v>0.4288480154888674</v>
+        <v>0.5808325266214908</v>
       </c>
       <c r="G4">
         <v>0.7579864472410455</v>
@@ -649,39 +658,42 @@
         <v>0.8954501452081317</v>
       </c>
       <c r="K4">
+        <v>0.5634075508228461</v>
+      </c>
+      <c r="L4">
         <v>0.6408518877057116</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.8635043562439496</v>
       </c>
-      <c r="M4">
-        <v>0.6592449177153921</v>
-      </c>
       <c r="N4">
+        <v>0.6389157792836399</v>
+      </c>
+      <c r="O4">
         <v>0.7337850919651501</v>
       </c>
-      <c r="O4">
-        <v>0.5517909002904162</v>
-      </c>
       <c r="P4">
-        <v>0.7763794772507261</v>
+        <v>0.7454017424975798</v>
       </c>
       <c r="Q4">
+        <v>0.718296224588577</v>
+      </c>
+      <c r="R4">
         <v>0.9109390125847048</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.2836398838334947</v>
       </c>
-      <c r="S4">
-        <v>0.8112294288480155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0.3494675701839303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7074340527577938</v>
+        <v>0.6091127098321343</v>
       </c>
       <c r="C5">
         <v>0.6163069544364509</v>
@@ -693,7 +705,7 @@
         <v>0.7865707434052758</v>
       </c>
       <c r="F5">
-        <v>0.5371702637889688</v>
+        <v>0.6282973621103117</v>
       </c>
       <c r="G5">
         <v>0.645083932853717</v>
@@ -708,98 +720,104 @@
         <v>0.7338129496402878</v>
       </c>
       <c r="K5">
+        <v>0.6762589928057554</v>
+      </c>
+      <c r="L5">
         <v>0.6378896882494005</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.7242206235011991</v>
       </c>
-      <c r="M5">
+      <c r="N5">
+        <v>0.6642685851318945</v>
+      </c>
+      <c r="O5">
+        <v>0.6714628297362111</v>
+      </c>
+      <c r="P5">
+        <v>0.5971223021582733</v>
+      </c>
+      <c r="Q5">
+        <v>0.6258992805755396</v>
+      </c>
+      <c r="R5">
         <v>0.7218225419664268</v>
       </c>
-      <c r="N5">
-        <v>0.6714628297362111</v>
-      </c>
-      <c r="O5">
-        <v>0.5539568345323741</v>
-      </c>
-      <c r="P5">
-        <v>0.5683453237410072</v>
-      </c>
-      <c r="Q5">
-        <v>0.7218225419664268</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.3956834532374101</v>
       </c>
-      <c r="S5">
-        <v>0.7050359712230215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>0.4820143884892086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.481203007518797</v>
+        <v>0.7128712871287128</v>
       </c>
       <c r="C6">
-        <v>0.8045112781954887</v>
+        <v>0.5502121640735502</v>
       </c>
       <c r="D6">
-        <v>0.8120300751879699</v>
+        <v>0.5459688826025459</v>
       </c>
       <c r="E6">
-        <v>0.8270676691729323</v>
+        <v>0.6209335219236209</v>
       </c>
       <c r="F6">
-        <v>0.8947368421052632</v>
+        <v>0.8684582743988685</v>
       </c>
       <c r="G6">
-        <v>0.3308270676691729</v>
+        <v>0.5728429985855729</v>
       </c>
       <c r="H6">
-        <v>0.3533834586466165</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="I6">
-        <v>0.481203007518797</v>
+        <v>0.4568599717114569</v>
       </c>
       <c r="J6">
-        <v>0.2631578947368421</v>
+        <v>0.5021216407355021</v>
       </c>
       <c r="K6">
-        <v>0.8496240601503759</v>
+        <v>0.6845827439886846</v>
       </c>
       <c r="L6">
-        <v>0.2330827067669173</v>
+        <v>0.6973125884016973</v>
       </c>
       <c r="M6">
-        <v>0.6466165413533834</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="N6">
-        <v>0.7218045112781954</v>
+        <v>0.4427157001414427</v>
       </c>
       <c r="O6">
-        <v>0.6766917293233082</v>
+        <v>0.6435643564356436</v>
       </c>
       <c r="P6">
-        <v>0.5413533834586466</v>
+        <v>0.5289957567185289</v>
       </c>
       <c r="Q6">
-        <v>0.6917293233082706</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R6">
-        <v>0.8045112781954887</v>
+        <v>0.6562942008486563</v>
       </c>
       <c r="S6">
-        <v>0.3909774436090225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>0.5106082036775106</v>
+      </c>
+      <c r="T6">
+        <v>0.42998585572843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5690481149760467</v>
+        <v>0.669235575921683</v>
       </c>
       <c r="C7">
         <v>0.5215580087481775</v>
@@ -811,7 +829,7 @@
         <v>0.659029368881483</v>
       </c>
       <c r="F7">
-        <v>0.4803166007081858</v>
+        <v>0.6096646531972506</v>
       </c>
       <c r="G7">
         <v>0.9662570297854614</v>
@@ -826,39 +844,42 @@
         <v>0.7890022911893355</v>
       </c>
       <c r="K7">
+        <v>0.6769423036867319</v>
+      </c>
+      <c r="L7">
         <v>0.6846490314517809</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.4532389085607165</v>
       </c>
-      <c r="M7">
-        <v>0.6586127890022911</v>
-      </c>
       <c r="N7">
+        <v>0.5925848781503853</v>
+      </c>
+      <c r="O7">
         <v>0.6802749427202666</v>
       </c>
-      <c r="O7">
-        <v>0.5028119141845449</v>
-      </c>
       <c r="P7">
-        <v>0.4432409914601125</v>
+        <v>0.5400958133722141</v>
       </c>
       <c r="Q7">
+        <v>0.4963549260570714</v>
+      </c>
+      <c r="R7">
         <v>0.6519475109352219</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.3936679858362841</v>
       </c>
-      <c r="S7">
-        <v>0.643824203290981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0.4386586127890023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6392961876832844</v>
+        <v>0.6085043988269795</v>
       </c>
       <c r="C8">
         <v>0.593841642228739</v>
@@ -870,7 +891,7 @@
         <v>0.6275659824046921</v>
       </c>
       <c r="F8">
-        <v>0.498533724340176</v>
+        <v>0.5043988269794721</v>
       </c>
       <c r="G8">
         <v>0.5689149560117303</v>
@@ -885,39 +906,42 @@
         <v>0.6319648093841642</v>
       </c>
       <c r="K8">
+        <v>0.6495601173020528</v>
+      </c>
+      <c r="L8">
         <v>0.6011730205278593</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.5689149560117303</v>
       </c>
-      <c r="M8">
-        <v>0.6158357771260997</v>
-      </c>
       <c r="N8">
+        <v>0.626099706744868</v>
+      </c>
+      <c r="O8">
         <v>0.6348973607038123</v>
       </c>
-      <c r="O8">
-        <v>0.5542521994134897</v>
-      </c>
       <c r="P8">
-        <v>0.5410557184750733</v>
+        <v>0.5439882697947214</v>
       </c>
       <c r="Q8">
+        <v>0.5425219941348973</v>
+      </c>
+      <c r="R8">
         <v>0.5689149560117303</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.4868035190615836</v>
       </c>
-      <c r="S8">
-        <v>0.5190615835777126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0.5161290322580645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6389372822299652</v>
+        <v>0.6014808362369338</v>
       </c>
       <c r="C9">
         <v>0.6110627177700348</v>
@@ -929,7 +953,7 @@
         <v>0.6385017421602788</v>
       </c>
       <c r="F9">
-        <v>0.6088850174216028</v>
+        <v>0.5849303135888502</v>
       </c>
       <c r="G9">
         <v>0.4651567944250871</v>
@@ -944,39 +968,42 @@
         <v>0.4486062717770035</v>
       </c>
       <c r="K9">
+        <v>0.6393728222996515</v>
+      </c>
+      <c r="L9">
         <v>0.617595818815331</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.5840592334494773</v>
       </c>
-      <c r="M9">
-        <v>0.5831881533101045</v>
-      </c>
       <c r="N9">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="O9">
         <v>0.5984320557491289</v>
       </c>
-      <c r="O9">
-        <v>0.6293554006968641</v>
-      </c>
       <c r="P9">
-        <v>0.5287456445993032</v>
+        <v>0.5866724738675958</v>
       </c>
       <c r="Q9">
+        <v>0.6276132404181185</v>
+      </c>
+      <c r="R9">
         <v>0.5387630662020906</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.6040940766550522</v>
       </c>
-      <c r="S9">
-        <v>0.4507839721254355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0.5953832752613241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4415030846887268</v>
+        <v>0.6647223780145821</v>
       </c>
       <c r="C10">
         <v>0.195176668536175</v>
@@ -988,7 +1015,7 @@
         <v>0.6720134604598991</v>
       </c>
       <c r="F10">
-        <v>0.1484015703869882</v>
+        <v>0.1947279865395401</v>
       </c>
       <c r="G10">
         <v>0.8084127874369041</v>
@@ -1003,98 +1030,104 @@
         <v>0.9582725743129556</v>
       </c>
       <c r="K10">
+        <v>0.6831183398766124</v>
+      </c>
+      <c r="L10">
         <v>0.4802019068984857</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.6788558609085811</v>
       </c>
-      <c r="M10">
-        <v>0.5920358945597308</v>
-      </c>
       <c r="N10">
+        <v>0.5383062254627033</v>
+      </c>
+      <c r="O10">
         <v>0.8457655636567583</v>
       </c>
-      <c r="O10">
-        <v>0.3828379136287157</v>
-      </c>
       <c r="P10">
-        <v>0.2929893438025799</v>
+        <v>0.2926528323051037</v>
       </c>
       <c r="Q10">
+        <v>0.2212002243409983</v>
+      </c>
+      <c r="R10">
         <v>0.3960740325294447</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.1430173864273696</v>
       </c>
-      <c r="S10">
-        <v>0.4463264161525519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0.1965227145260796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.7782711663706335</v>
+        <v>0.6822594880847308</v>
       </c>
       <c r="C11">
-        <v>0.4123741859088218</v>
+        <v>0.5039717563989409</v>
       </c>
       <c r="D11">
-        <v>0.4396092362344582</v>
+        <v>0.3742277140335393</v>
       </c>
       <c r="E11">
-        <v>0.4900828892835998</v>
+        <v>0.7290379523389232</v>
       </c>
       <c r="F11">
-        <v>0.2535523978685613</v>
+        <v>0.4744042365401589</v>
       </c>
       <c r="G11">
-        <v>0.7627294256956779</v>
+        <v>0.7559576345984113</v>
       </c>
       <c r="H11">
-        <v>0.7587329780935465</v>
+        <v>0.6456310679611651</v>
       </c>
       <c r="I11">
-        <v>0.4791296625222025</v>
+        <v>0.6253309796999117</v>
       </c>
       <c r="J11">
-        <v>0.8564239194789817</v>
+        <v>0.733892321270962</v>
       </c>
       <c r="K11">
-        <v>0.5078448786264061</v>
+        <v>0.9267431597528685</v>
       </c>
       <c r="L11">
-        <v>0.7810834813499112</v>
+        <v>0.6240070609002648</v>
       </c>
       <c r="M11">
-        <v>0.4242155121373594</v>
+        <v>0.6531332744924978</v>
       </c>
       <c r="N11">
-        <v>0.4288040260509177</v>
+        <v>0.5745807590467784</v>
       </c>
       <c r="O11">
-        <v>0.3302249851983422</v>
+        <v>0.7131509267431597</v>
       </c>
       <c r="P11">
-        <v>0.4507104795737122</v>
+        <v>0.441747572815534</v>
       </c>
       <c r="Q11">
-        <v>0.7945529899348727</v>
+        <v>0.5189761694616064</v>
       </c>
       <c r="R11">
-        <v>0.1114564831261101</v>
+        <v>0.7149161518093556</v>
       </c>
       <c r="S11">
-        <v>0.4018650088809947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.3490732568402471</v>
+      </c>
+      <c r="T11">
+        <v>0.4139452780229479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.5909810126582279</v>
+        <v>0.6574367088607594</v>
       </c>
       <c r="C12">
         <v>0.5893987341772152</v>
@@ -1106,7 +1139,7 @@
         <v>0.6329113924050633</v>
       </c>
       <c r="F12">
-        <v>0.5632911392405063</v>
+        <v>0.6194620253164557</v>
       </c>
       <c r="G12">
         <v>0.569620253164557</v>
@@ -1121,39 +1154,42 @@
         <v>0.5031645569620253</v>
       </c>
       <c r="K12">
+        <v>0.6218354430379747</v>
+      </c>
+      <c r="L12">
         <v>0.8860759493670886</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.5253164556962026</v>
       </c>
-      <c r="M12">
-        <v>0.5767405063291139</v>
-      </c>
       <c r="N12">
+        <v>0.5838607594936709</v>
+      </c>
+      <c r="O12">
         <v>0.5901898734177216</v>
       </c>
-      <c r="O12">
-        <v>0.6716772151898734</v>
-      </c>
       <c r="P12">
-        <v>0.5110759493670886</v>
+        <v>0.622626582278481</v>
       </c>
       <c r="Q12">
+        <v>0.6131329113924051</v>
+      </c>
+      <c r="R12">
         <v>0.5545886075949367</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.5474683544303798</v>
       </c>
-      <c r="S12">
-        <v>0.4770569620253164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0.5585443037974683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7312775330396476</v>
+        <v>0.3127753303964758</v>
       </c>
       <c r="C13">
         <v>0.5462555066079295</v>
@@ -1165,7 +1201,7 @@
         <v>0.5903083700440529</v>
       </c>
       <c r="F13">
-        <v>0.6299559471365639</v>
+        <v>0.4096916299559472</v>
       </c>
       <c r="G13">
         <v>0.7444933920704846</v>
@@ -1180,98 +1216,104 @@
         <v>0.8634361233480177</v>
       </c>
       <c r="K13">
+        <v>0.3392070484581498</v>
+      </c>
+      <c r="L13">
         <v>0.5550660792951542</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.9118942731277533</v>
       </c>
-      <c r="M13">
-        <v>0.4889867841409692</v>
-      </c>
       <c r="N13">
+        <v>0.4713656387665198</v>
+      </c>
+      <c r="O13">
         <v>0.6651982378854625</v>
       </c>
-      <c r="O13">
-        <v>0.7180616740088106</v>
-      </c>
       <c r="P13">
-        <v>0.5947136563876652</v>
+        <v>0.5991189427312775</v>
       </c>
       <c r="Q13">
+        <v>0.5066079295154186</v>
+      </c>
+      <c r="R13">
         <v>0.8325991189427313</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.1674008810572687</v>
       </c>
-      <c r="S13">
-        <v>0.788546255506608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0.4757709251101321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.6339092872570194</v>
+        <v>0.6092988376452944</v>
       </c>
       <c r="C14">
-        <v>0.6349892008639308</v>
+        <v>0.6010498687664042</v>
       </c>
       <c r="D14">
-        <v>0.5637149028077754</v>
+        <v>0.5800524934383202</v>
       </c>
       <c r="E14">
-        <v>0.6576673866090713</v>
+        <v>0.6617922759655043</v>
       </c>
       <c r="F14">
-        <v>0.4870410367170626</v>
+        <v>0.557180352455943</v>
       </c>
       <c r="G14">
-        <v>0.6123110151187905</v>
+        <v>0.5568053993250843</v>
       </c>
       <c r="H14">
-        <v>0.6457883369330454</v>
+        <v>0.6205474315710536</v>
       </c>
       <c r="I14">
-        <v>0.6015118790496761</v>
+        <v>0.5703037120359955</v>
       </c>
       <c r="J14">
-        <v>0.6598272138228942</v>
+        <v>0.5999250093738283</v>
       </c>
       <c r="K14">
-        <v>0.5259179265658748</v>
+        <v>0.6486689163854518</v>
       </c>
       <c r="L14">
-        <v>0.6209503239740821</v>
+        <v>0.6077990251218598</v>
       </c>
       <c r="M14">
-        <v>0.7613390928725702</v>
+        <v>0.5568053993250843</v>
       </c>
       <c r="N14">
-        <v>0.6738660907127429</v>
+        <v>0.8481439820022497</v>
       </c>
       <c r="O14">
-        <v>0.6576673866090713</v>
+        <v>0.6167979002624672</v>
       </c>
       <c r="P14">
-        <v>0.5863930885529157</v>
+        <v>0.5871766029246345</v>
       </c>
       <c r="Q14">
-        <v>0.6436285097192225</v>
+        <v>0.6494188226471691</v>
       </c>
       <c r="R14">
-        <v>0.4535637149028078</v>
+        <v>0.5590551181102362</v>
       </c>
       <c r="S14">
-        <v>0.5831533477321814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>0.5256842894638171</v>
+      </c>
+      <c r="T14">
+        <v>0.5181852268466441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7171926910299004</v>
+        <v>0.5722591362126246</v>
       </c>
       <c r="C15">
         <v>0.5851328903654485</v>
@@ -1283,7 +1325,7 @@
         <v>0.6096345514950167</v>
       </c>
       <c r="F15">
-        <v>0.3999169435215947</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="G15">
         <v>0.6852159468438538</v>
@@ -1298,157 +1340,166 @@
         <v>0.6985049833887044</v>
       </c>
       <c r="K15">
+        <v>0.6154485049833887</v>
+      </c>
+      <c r="L15">
         <v>0.6320598006644518</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.582641196013289</v>
       </c>
-      <c r="M15">
-        <v>0.704734219269103</v>
-      </c>
       <c r="N15">
+        <v>0.5959302325581395</v>
+      </c>
+      <c r="O15">
         <v>0.9235880398671097</v>
       </c>
-      <c r="O15">
-        <v>0.4024086378737541</v>
-      </c>
       <c r="P15">
-        <v>0.4526578073089701</v>
+        <v>0.3741694352159469</v>
       </c>
       <c r="Q15">
+        <v>0.5269933554817275</v>
+      </c>
+      <c r="R15">
         <v>0.6748338870431894</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.3583887043189369</v>
       </c>
-      <c r="S15">
-        <v>0.5660299003322259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0.3588039867109635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.6379310344827587</v>
+        <v>0.5592417061611374</v>
       </c>
       <c r="C16">
-        <v>0.5603448275862069</v>
+        <v>0.5829383886255924</v>
       </c>
       <c r="D16">
-        <v>0.603448275862069</v>
+        <v>0.5876777251184834</v>
       </c>
       <c r="E16">
-        <v>0.456896551724138</v>
+        <v>0.6398104265402843</v>
       </c>
       <c r="F16">
-        <v>0.4224137931034483</v>
+        <v>0.4407582938388626</v>
       </c>
       <c r="G16">
-        <v>0.6120689655172413</v>
+        <v>0.6161137440758294</v>
       </c>
       <c r="H16">
-        <v>0.6982758620689655</v>
+        <v>0.6398104265402843</v>
       </c>
       <c r="I16">
-        <v>0.5172413793103449</v>
+        <v>0.5497630331753555</v>
       </c>
       <c r="J16">
-        <v>0.7068965517241379</v>
+        <v>0.6445497630331753</v>
       </c>
       <c r="K16">
-        <v>0.4396551724137931</v>
+        <v>0.5924170616113744</v>
       </c>
       <c r="L16">
-        <v>0.6896551724137931</v>
+        <v>0.5545023696682464</v>
       </c>
       <c r="M16">
-        <v>0.5258620689655172</v>
+        <v>0.6066350710900474</v>
       </c>
       <c r="N16">
-        <v>0.5431034482758621</v>
+        <v>0.5924170616113744</v>
       </c>
       <c r="O16">
-        <v>0.7844827586206896</v>
+        <v>0.6635071090047393</v>
       </c>
       <c r="P16">
-        <v>0.5517241379310345</v>
+        <v>0.8151658767772512</v>
       </c>
       <c r="Q16">
-        <v>0.5948275862068966</v>
+        <v>0.5592417061611374</v>
       </c>
       <c r="R16">
-        <v>0.3103448275862069</v>
+        <v>0.6255924170616114</v>
       </c>
       <c r="S16">
-        <v>0.6810344827586207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>0.4170616113744076</v>
+      </c>
+      <c r="T16">
+        <v>0.5118483412322274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.6548909875247756</v>
+        <v>0.5584045584045584</v>
       </c>
       <c r="C17">
-        <v>0.4235746764603008</v>
+        <v>0.5413105413105413</v>
       </c>
       <c r="D17">
-        <v>0.4935292060160895</v>
+        <v>0.6452991452991453</v>
       </c>
       <c r="E17">
-        <v>0.6476623528040107</v>
+        <v>0.6324786324786325</v>
       </c>
       <c r="F17">
-        <v>0.2463565349189693</v>
+        <v>0.4985754985754986</v>
       </c>
       <c r="G17">
-        <v>0.5264078349073102</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="H17">
-        <v>0.6842718899382069</v>
+        <v>0.5883190883190883</v>
       </c>
       <c r="I17">
-        <v>0.6028914538883059</v>
+        <v>0.5698005698005698</v>
       </c>
       <c r="J17">
-        <v>0.7611052815669814</v>
+        <v>0.5783475783475783</v>
       </c>
       <c r="K17">
-        <v>0.5112510201702227</v>
+        <v>0.5569800569800569</v>
       </c>
       <c r="L17">
-        <v>0.8178850413897634</v>
+        <v>0.6581196581196581</v>
       </c>
       <c r="M17">
-        <v>0.55299055613851</v>
+        <v>0.5227920227920227</v>
       </c>
       <c r="N17">
-        <v>0.6789087093389297</v>
+        <v>0.5997150997150997</v>
       </c>
       <c r="O17">
-        <v>0.6818234814037543</v>
+        <v>0.6096866096866097</v>
       </c>
       <c r="P17">
-        <v>0.88189343593331</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Q17">
-        <v>0.6220123586335549</v>
+        <v>0.8390313390313391</v>
       </c>
       <c r="R17">
-        <v>0.3036026582721231</v>
+        <v>0.613960113960114</v>
       </c>
       <c r="S17">
-        <v>0.7029264311530838</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>0.6239316239316239</v>
+      </c>
+      <c r="T17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.7316534040671971</v>
+        <v>0.5671971706454465</v>
       </c>
       <c r="C18">
         <v>0.6251105216622458</v>
@@ -1460,7 +1511,7 @@
         <v>0.7175066312997348</v>
       </c>
       <c r="F18">
-        <v>0.4434129089301503</v>
+        <v>0.4022988505747127</v>
       </c>
       <c r="G18">
         <v>0.5773651635720601</v>
@@ -1475,39 +1526,42 @@
         <v>0.753315649867374</v>
       </c>
       <c r="K18">
+        <v>0.5614500442086648</v>
+      </c>
+      <c r="L18">
         <v>0.6613616268788682</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.6949602122015915</v>
       </c>
-      <c r="M18">
-        <v>0.5826702033598585</v>
-      </c>
       <c r="N18">
+        <v>0.6971706454465075</v>
+      </c>
+      <c r="O18">
         <v>0.6781609195402298</v>
       </c>
-      <c r="O18">
-        <v>0.6030061892130858</v>
-      </c>
       <c r="P18">
-        <v>0.6578249336870027</v>
+        <v>0.6091954022988506</v>
       </c>
       <c r="Q18">
+        <v>0.6870026525198939</v>
+      </c>
+      <c r="R18">
         <v>0.9403183023872679</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.4677276746242264</v>
       </c>
-      <c r="S18">
-        <v>0.5335985853227233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0.3603006189213086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.5978260869565217</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C19">
         <v>0.391304347826087</v>
@@ -1534,90 +1588,96 @@
         <v>0.7173913043478261</v>
       </c>
       <c r="K19">
+        <v>0.4565217391304348</v>
+      </c>
+      <c r="L19">
         <v>0.5978260869565217</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.6304347826086957</v>
       </c>
-      <c r="M19">
-        <v>0.6847826086956522</v>
-      </c>
       <c r="N19">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="O19">
         <v>0.5</v>
       </c>
-      <c r="O19">
-        <v>0.4891304347826087</v>
-      </c>
       <c r="P19">
-        <v>0.5543478260869565</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="Q19">
+        <v>0.5434782608695652</v>
+      </c>
+      <c r="R19">
         <v>0.5869565217391305</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.8695652173913043</v>
       </c>
-      <c r="S19">
-        <v>0.5434782608695652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0.4130434782608696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="C20">
-        <v>0.7103448275862069</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="D20">
-        <v>0.6827586206896552</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="E20">
-        <v>0.696551724137931</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="F20">
-        <v>0.6758620689655173</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="G20">
-        <v>0.6689655172413793</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H20">
-        <v>0.4551724137931035</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I20">
-        <v>0.6758620689655173</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="J20">
-        <v>0.4413793103448276</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="K20">
-        <v>0.6827586206896552</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L20">
-        <v>0.3310344827586207</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="M20">
-        <v>0.6896551724137931</v>
+        <v>0.3470588235294118</v>
       </c>
       <c r="N20">
-        <v>0.6620689655172414</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="O20">
-        <v>0.6620689655172414</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="P20">
-        <v>0.3655172413793104</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="Q20">
-        <v>0.6827586206896552</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="R20">
-        <v>0.6827586206896552</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="S20">
-        <v>0.6275862068965518</v>
+        <v>0.6647058823529411</v>
+      </c>
+      <c r="T20">
+        <v>0.7411764705882353</v>
       </c>
     </row>
   </sheetData>
@@ -1627,13 +1687,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,72 +1751,78 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.821300442852167</v>
+        <v>0.774294819208683</v>
       </c>
       <c r="C2">
-        <v>0.6077997617840444</v>
+        <v>0.568484383000512</v>
       </c>
       <c r="D2">
-        <v>0.6364171526960167</v>
+        <v>0.6284899034240562</v>
       </c>
       <c r="E2">
-        <v>0.6436994378170848</v>
+        <v>0.6015289937661924</v>
       </c>
       <c r="F2">
-        <v>0.5911477153415057</v>
+        <v>0.5358981693363845</v>
       </c>
       <c r="G2">
-        <v>0.5853219756704693</v>
+        <v>0.5914012702539367</v>
       </c>
       <c r="H2">
-        <v>0.6433991520924172</v>
+        <v>0.5836219396189474</v>
       </c>
       <c r="I2">
-        <v>0.5660259803272903</v>
+        <v>0.5416976135886589</v>
       </c>
       <c r="J2">
-        <v>0.6620686864763384</v>
+        <v>0.5566814635029115</v>
       </c>
       <c r="K2">
-        <v>0.6707169768238384</v>
+        <v>0.6229096667052871</v>
       </c>
       <c r="L2">
-        <v>0.5851206044754432</v>
+        <v>0.569251935423869</v>
       </c>
       <c r="M2">
-        <v>0.6110776168714505</v>
+        <v>0.5337334639882411</v>
       </c>
       <c r="N2">
-        <v>0.6438218298210565</v>
+        <v>0.5342578965243971</v>
       </c>
       <c r="O2">
-        <v>0.6328797768992676</v>
+        <v>0.6049900859220092</v>
       </c>
       <c r="P2">
-        <v>0.57373327056021</v>
+        <v>0.6131649807146495</v>
       </c>
       <c r="Q2">
-        <v>0.6588182849732533</v>
+        <v>0.5733775615509362</v>
       </c>
       <c r="R2">
-        <v>0.3733120113717129</v>
+        <v>0.5511112236970986</v>
       </c>
       <c r="S2">
-        <v>0.5171178668755405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>0.5539021693959535</v>
+      </c>
+      <c r="T2">
+        <v>0.541229177274603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6669642857142857</v>
+        <v>0.6607004092628089</v>
       </c>
       <c r="C3">
         <v>0.8634965393488849</v>
@@ -1768,7 +1834,7 @@
         <v>0.7072072072072072</v>
       </c>
       <c r="F3">
-        <v>0.5740808823529412</v>
+        <v>0.5429512516469038</v>
       </c>
       <c r="G3">
         <v>0.6564486962608644</v>
@@ -1783,39 +1849,42 @@
         <v>0.8436643474594139</v>
       </c>
       <c r="K3">
+        <v>0.7110497990326317</v>
+      </c>
+      <c r="L3">
         <v>0.6443181005506686</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.6711711711711712</v>
       </c>
-      <c r="M3">
-        <v>0.6570581896551724</v>
-      </c>
       <c r="N3">
+        <v>0.6123366706261666</v>
+      </c>
+      <c r="O3">
         <v>0.7124022022602144</v>
       </c>
-      <c r="O3">
-        <v>0.6405330564209069</v>
-      </c>
       <c r="P3">
-        <v>0.5710207491992758</v>
+        <v>0.6626038653996236</v>
       </c>
       <c r="Q3">
+        <v>0.6249042145593871</v>
+      </c>
+      <c r="R3">
         <v>0.6360925136944614</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.5689177489177489</v>
       </c>
-      <c r="S3">
-        <v>0.5459865069530497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0.557273350079927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6953223405473491</v>
+        <v>0.582004685332181</v>
       </c>
       <c r="C4">
         <v>0.5997085242480606</v>
@@ -1827,7 +1896,7 @@
         <v>0.6273945757055832</v>
       </c>
       <c r="F4">
-        <v>0.5601539558687809</v>
+        <v>0.5540461121157324</v>
       </c>
       <c r="G4">
         <v>0.6080987897551365</v>
@@ -1842,39 +1911,42 @@
         <v>0.7498298947777697</v>
       </c>
       <c r="K4">
+        <v>0.597894991348762</v>
+      </c>
+      <c r="L4">
         <v>0.6001688291979664</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.679131244433649</v>
       </c>
-      <c r="M4">
-        <v>0.5943808049535604</v>
-      </c>
       <c r="N4">
+        <v>0.5982092723271871</v>
+      </c>
+      <c r="O4">
         <v>0.6218495679167715</v>
       </c>
-      <c r="O4">
-        <v>0.5940168833335862</v>
-      </c>
       <c r="P4">
-        <v>0.5908766481420944</v>
+        <v>0.6322885374827016</v>
       </c>
       <c r="Q4">
+        <v>0.6337813206405807</v>
+      </c>
+      <c r="R4">
         <v>0.7876580485040354</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.5484791357225375</v>
       </c>
-      <c r="S4">
-        <v>0.577542372881356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0.550343560954842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6339446242358864</v>
+        <v>0.6389408463876549</v>
       </c>
       <c r="C5">
         <v>0.5939812875296746</v>
@@ -1886,7 +1958,7 @@
         <v>0.7372822202367657</v>
       </c>
       <c r="F5">
-        <v>0.550362452673377</v>
+        <v>0.5685598377281947</v>
       </c>
       <c r="G5">
         <v>0.612246345962821</v>
@@ -1901,98 +1973,104 @@
         <v>0.6953762966232619</v>
       </c>
       <c r="K5">
+        <v>0.6485258908032487</v>
+      </c>
+      <c r="L5">
         <v>0.6130376909065434</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.6616037525128434</v>
       </c>
-      <c r="M5">
-        <v>0.6544642857142857</v>
-      </c>
       <c r="N5">
+        <v>0.5777148507731031</v>
+      </c>
+      <c r="O5">
         <v>0.6006986301369863</v>
       </c>
-      <c r="O5">
-        <v>0.617372568332923</v>
-      </c>
       <c r="P5">
-        <v>0.5313122923588041</v>
+        <v>0.613885547742413</v>
       </c>
       <c r="Q5">
+        <v>0.5888544891640867</v>
+      </c>
+      <c r="R5">
         <v>0.6346594005449591</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.5918751681463545</v>
       </c>
-      <c r="S5">
-        <v>0.5127570449352628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>0.5820958904109589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5302298850574713</v>
+        <v>0.7083600229941693</v>
       </c>
       <c r="C6">
-        <v>0.5126050420168067</v>
+        <v>0.5049837350904997</v>
       </c>
       <c r="D6">
-        <v>0.5833333333333334</v>
+        <v>0.4964008204157299</v>
       </c>
       <c r="E6">
-        <v>0.6656167108753315</v>
+        <v>0.6169892084162296</v>
       </c>
       <c r="F6">
-        <v>0.7513354700854701</v>
+        <v>0.8699767711962834</v>
       </c>
       <c r="G6">
-        <v>0.5761904761904761</v>
+        <v>0.6608818905140788</v>
       </c>
       <c r="H6">
-        <v>0.5598484848484848</v>
+        <v>0.5223655427321415</v>
       </c>
       <c r="I6">
-        <v>0.506928668786915</v>
+        <v>0.4337301587301587</v>
       </c>
       <c r="J6">
-        <v>0.5701754385964912</v>
+        <v>0.5800896004700352</v>
       </c>
       <c r="K6">
-        <v>0.6808103975535168</v>
+        <v>0.7120764844012077</v>
       </c>
       <c r="L6">
-        <v>0.5677966101694916</v>
+        <v>0.703650025327855</v>
       </c>
       <c r="M6">
-        <v>0.5501700680272109</v>
+        <v>0.3880706118530156</v>
       </c>
       <c r="N6">
-        <v>0.5893425238600212</v>
+        <v>0.452868545772013</v>
       </c>
       <c r="O6">
-        <v>0.5602272727272727</v>
+        <v>0.6372885249667711</v>
       </c>
       <c r="P6">
-        <v>0.4985112230874943</v>
+        <v>0.5164511795818991</v>
       </c>
       <c r="Q6">
-        <v>0.5657622739018088</v>
+        <v>0.561597572858535</v>
       </c>
       <c r="R6">
-        <v>0.5381944444444444</v>
+        <v>0.653494623655914</v>
       </c>
       <c r="S6">
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>0.3697063369397218</v>
+      </c>
+      <c r="T6">
+        <v>0.4010882290336313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5898137834686685</v>
+        <v>0.6615488155530997</v>
       </c>
       <c r="C7">
         <v>0.6214277276794241</v>
@@ -2004,7 +2082,7 @@
         <v>0.6966587410607072</v>
       </c>
       <c r="F7">
-        <v>0.6203962400821118</v>
+        <v>0.6007398750625946</v>
       </c>
       <c r="G7">
         <v>0.9641449426581029</v>
@@ -2019,39 +2097,42 @@
         <v>0.7794613117500016</v>
       </c>
       <c r="K7">
+        <v>0.7000814957452987</v>
+      </c>
+      <c r="L7">
         <v>0.6682011392116656</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.5297080222344551</v>
       </c>
-      <c r="M7">
-        <v>0.6678086350925353</v>
-      </c>
       <c r="N7">
+        <v>0.5808002286116241</v>
+      </c>
+      <c r="O7">
         <v>0.6616321525619</v>
       </c>
-      <c r="O7">
-        <v>0.6121209347531977</v>
-      </c>
       <c r="P7">
-        <v>0.5099354826825573</v>
+        <v>0.6268080669994546</v>
       </c>
       <c r="Q7">
+        <v>0.5706148498998589</v>
+      </c>
+      <c r="R7">
         <v>0.6368589344919728</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.5278248587570621</v>
       </c>
-      <c r="S7">
-        <v>0.6171008552354815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0.5560435376293262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.638992408557626</v>
+        <v>0.654457478344118</v>
       </c>
       <c r="C8">
         <v>0.6663372443472532</v>
@@ -2063,7 +2144,7 @@
         <v>0.6342217484008528</v>
       </c>
       <c r="F8">
-        <v>0.5125165284288977</v>
+        <v>0.5033004158004157</v>
       </c>
       <c r="G8">
         <v>0.5732275754014884</v>
@@ -2078,39 +2159,42 @@
         <v>0.6656767775418195</v>
       </c>
       <c r="K8">
+        <v>0.7150430866342778</v>
+      </c>
+      <c r="L8">
         <v>0.606956289978678</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.5692641863148028</v>
       </c>
-      <c r="M8">
-        <v>0.6202142606252196</v>
-      </c>
       <c r="N8">
+        <v>0.6286948968512487</v>
+      </c>
+      <c r="O8">
         <v>0.6432243388233608</v>
       </c>
-      <c r="O8">
-        <v>0.6024791290613718</v>
-      </c>
       <c r="P8">
-        <v>0.5434824434824435</v>
+        <v>0.5970322336346854</v>
       </c>
       <c r="Q8">
+        <v>0.6401411657559198</v>
+      </c>
+      <c r="R8">
         <v>0.5722777991535206</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.4933431952662722</v>
       </c>
-      <c r="S8">
-        <v>0.5197686047313608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0.5649303786721005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6382914466096037</v>
+        <v>0.5703352311975384</v>
       </c>
       <c r="C9">
         <v>0.585568842921784</v>
@@ -2122,7 +2206,7 @@
         <v>0.6257545697962426</v>
       </c>
       <c r="F9">
-        <v>0.6168439379233748</v>
+        <v>0.53712916840478</v>
       </c>
       <c r="G9">
         <v>0.5136080659168079</v>
@@ -2137,39 +2221,42 @@
         <v>0.697475196897454</v>
       </c>
       <c r="K9">
+        <v>0.6513141253369295</v>
+      </c>
+      <c r="L9">
         <v>0.5985363051680697</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.634681215233205</v>
       </c>
-      <c r="M9">
-        <v>0.5773278216759341</v>
-      </c>
       <c r="N9">
+        <v>0.5480402192224852</v>
+      </c>
+      <c r="O9">
         <v>0.5738925980344313</v>
       </c>
-      <c r="O9">
-        <v>0.6094217596914413</v>
-      </c>
       <c r="P9">
-        <v>0.5583995191547868</v>
+        <v>0.5518168498168499</v>
       </c>
       <c r="Q9">
+        <v>0.6132719360991894</v>
+      </c>
+      <c r="R9">
         <v>0.5985561497326204</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.6227396021699819</v>
       </c>
-      <c r="S9">
-        <v>0.5058557347670251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0.5620602422747715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5651805615014812</v>
+        <v>0.5814245108438013</v>
       </c>
       <c r="C10">
         <v>0.56466186828105</v>
@@ -2181,7 +2268,7 @@
         <v>0.6183708873089562</v>
       </c>
       <c r="F10">
-        <v>0.5231705672944837</v>
+        <v>0.53274024877027</v>
       </c>
       <c r="G10">
         <v>0.674740840324599</v>
@@ -2196,98 +2283,104 @@
         <v>0.9031583638374132</v>
       </c>
       <c r="K10">
+        <v>0.6250390031303157</v>
+      </c>
+      <c r="L10">
         <v>0.5616732697383792</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.531461059972715</v>
       </c>
-      <c r="M10">
-        <v>0.5994913334088592</v>
-      </c>
       <c r="N10">
+        <v>0.5817225212533275</v>
+      </c>
+      <c r="O10">
         <v>0.678410587359902</v>
       </c>
-      <c r="O10">
-        <v>0.5642028733242435</v>
-      </c>
       <c r="P10">
-        <v>0.5390181645688253</v>
+        <v>0.5621548811085535</v>
       </c>
       <c r="Q10">
+        <v>0.5603926479669904</v>
+      </c>
+      <c r="R10">
         <v>0.5493992744294683</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.5714125434758218</v>
       </c>
-      <c r="S10">
-        <v>0.5233085857507689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0.5039559443856481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6053235788095971</v>
+        <v>0.7213007266070789</v>
       </c>
       <c r="C11">
-        <v>0.5540544462632271</v>
+        <v>0.6527517781251373</v>
       </c>
       <c r="D11">
-        <v>0.5645172914371609</v>
+        <v>0.5115218911053667</v>
       </c>
       <c r="E11">
-        <v>0.5608660766906225</v>
+        <v>0.7378159073950361</v>
       </c>
       <c r="F11">
-        <v>0.5355555948722097</v>
+        <v>0.6054927253335479</v>
       </c>
       <c r="G11">
-        <v>0.5564027826158228</v>
+        <v>0.7327462605595598</v>
       </c>
       <c r="H11">
-        <v>0.5744416383658166</v>
+        <v>0.6316016661310345</v>
       </c>
       <c r="I11">
-        <v>0.5392777769812024</v>
+        <v>0.6325159265504965</v>
       </c>
       <c r="J11">
-        <v>0.6349273933004591</v>
+        <v>0.7248343363471283</v>
       </c>
       <c r="K11">
-        <v>0.5509354254356154</v>
+        <v>0.9152925713293737</v>
       </c>
       <c r="L11">
-        <v>0.5595977674068928</v>
+        <v>0.6670230320687711</v>
       </c>
       <c r="M11">
-        <v>0.535356149911374</v>
+        <v>0.5990580056508704</v>
       </c>
       <c r="N11">
-        <v>0.5593012766046721</v>
+        <v>0.6133198487827404</v>
       </c>
       <c r="O11">
-        <v>0.5548393670327287</v>
+        <v>0.7200842342542747</v>
       </c>
       <c r="P11">
-        <v>0.5270149329688545</v>
+        <v>0.5696081849982289</v>
       </c>
       <c r="Q11">
-        <v>0.5884089117567648</v>
+        <v>0.6240451998564093</v>
       </c>
       <c r="R11">
-        <v>0.5251975487824544</v>
+        <v>0.6856720189281694</v>
       </c>
       <c r="S11">
-        <v>0.524824239851829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.3337789661319073</v>
+      </c>
+      <c r="T11">
+        <v>0.616255383177243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6492970032840722</v>
+        <v>0.7740675880348353</v>
       </c>
       <c r="C12">
         <v>0.583050527903469</v>
@@ -2299,7 +2392,7 @@
         <v>0.6284589923378995</v>
       </c>
       <c r="F12">
-        <v>0.5479647812658461</v>
+        <v>0.6129662252141727</v>
       </c>
       <c r="G12">
         <v>0.5730665360314529</v>
@@ -2314,39 +2407,42 @@
         <v>0.6046545831053693</v>
       </c>
       <c r="K12">
+        <v>0.6426708525490483</v>
+      </c>
+      <c r="L12">
         <v>0.888471543749338</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.6181989761011631</v>
       </c>
-      <c r="M12">
-        <v>0.571785043941972</v>
-      </c>
       <c r="N12">
+        <v>0.5787216994647335</v>
+      </c>
+      <c r="O12">
         <v>0.5815076592556485</v>
       </c>
-      <c r="O12">
-        <v>0.6676392253085448</v>
-      </c>
       <c r="P12">
-        <v>0.5475432467913671</v>
+        <v>0.6165329768270945</v>
       </c>
       <c r="Q12">
+        <v>0.6061206896551724</v>
+      </c>
+      <c r="R12">
         <v>0.6071428571428572</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.4535750726002669</v>
       </c>
-      <c r="S12">
-        <v>0.481093875906527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0.544741647867655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5877744510978045</v>
+        <v>0.5507722007722008</v>
       </c>
       <c r="C13">
         <v>0.5789226432821798</v>
@@ -2358,7 +2454,7 @@
         <v>0.6041828642512829</v>
       </c>
       <c r="F13">
-        <v>0.5209090909090909</v>
+        <v>0.4930727362691737</v>
       </c>
       <c r="G13">
         <v>0.5398636244426961</v>
@@ -2373,98 +2469,104 @@
         <v>0.7705426356589147</v>
       </c>
       <c r="K13">
+        <v>0.5581354748603352</v>
+      </c>
+      <c r="L13">
         <v>0.5565905915230553</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.8403554970375247</v>
       </c>
-      <c r="M13">
-        <v>0.5633008921330089</v>
-      </c>
       <c r="N13">
+        <v>0.5448905109489051</v>
+      </c>
+      <c r="O13">
         <v>0.6062028566843203</v>
       </c>
-      <c r="O13">
-        <v>0.5917910447761194</v>
-      </c>
       <c r="P13">
-        <v>0.5573235895018074</v>
+        <v>0.5225637671680837</v>
       </c>
       <c r="Q13">
+        <v>0.5358036272670419</v>
+      </c>
+      <c r="R13">
         <v>0.6561167945439045</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.578125</v>
       </c>
-      <c r="S13">
-        <v>0.4802521008403361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0.4955607476635514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.6238646380255242</v>
+        <v>0.6222707924785696</v>
       </c>
       <c r="C14">
-        <v>0.6622853007635392</v>
+        <v>0.6196331558961001</v>
       </c>
       <c r="D14">
-        <v>0.6189958864501819</v>
+        <v>0.5861394109053639</v>
       </c>
       <c r="E14">
-        <v>0.707441348973607</v>
+        <v>0.6687538062882867</v>
       </c>
       <c r="F14">
-        <v>0.4510725010725011</v>
+        <v>0.5723084384093113</v>
       </c>
       <c r="G14">
-        <v>0.5986102897693673</v>
+        <v>0.5573387582881254</v>
       </c>
       <c r="H14">
-        <v>0.6613220815752461</v>
+        <v>0.6212655560751086</v>
       </c>
       <c r="I14">
-        <v>0.5843393936900991</v>
+        <v>0.5865910495718827</v>
       </c>
       <c r="J14">
-        <v>0.6724498692240628</v>
+        <v>0.6457263101949631</v>
       </c>
       <c r="K14">
-        <v>0.6433732933732934</v>
+        <v>0.6752858025114938</v>
       </c>
       <c r="L14">
-        <v>0.6105564710841989</v>
+        <v>0.6078591593651936</v>
       </c>
       <c r="M14">
-        <v>0.7549513880976795</v>
+        <v>0.5933833601334049</v>
       </c>
       <c r="N14">
-        <v>0.6635707993011901</v>
+        <v>0.8484249842498425</v>
       </c>
       <c r="O14">
-        <v>0.6508908371040725</v>
+        <v>0.6400972404320409</v>
       </c>
       <c r="P14">
-        <v>0.5838221010161386</v>
+        <v>0.5994634037553579</v>
       </c>
       <c r="Q14">
-        <v>0.6412759778310058</v>
+        <v>0.6543380045545589</v>
       </c>
       <c r="R14">
-        <v>0.5666447512601359</v>
+        <v>0.6118589773876232</v>
       </c>
       <c r="S14">
-        <v>0.5611256213665852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>0.6031695459265553</v>
+      </c>
+      <c r="T14">
+        <v>0.5201663270001973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7012091086466261</v>
+        <v>0.6248690116508802</v>
       </c>
       <c r="C15">
         <v>0.6620047033051994</v>
@@ -2476,7 +2578,7 @@
         <v>0.7019984376439804</v>
       </c>
       <c r="F15">
-        <v>0.644740675990676</v>
+        <v>0.5441090895208303</v>
       </c>
       <c r="G15">
         <v>0.6553695832010946</v>
@@ -2491,157 +2593,166 @@
         <v>0.7294135861497409</v>
       </c>
       <c r="K15">
+        <v>0.6916258526124036</v>
+      </c>
+      <c r="L15">
         <v>0.6419627608902745</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.5425686418394179</v>
       </c>
-      <c r="M15">
-        <v>0.7044995488447944</v>
-      </c>
       <c r="N15">
+        <v>0.6684238696682164</v>
+      </c>
+      <c r="O15">
         <v>0.9114027319897435</v>
       </c>
-      <c r="O15">
-        <v>0.6438733552631579</v>
-      </c>
       <c r="P15">
-        <v>0.5840856914784998</v>
+        <v>0.6011904761904762</v>
       </c>
       <c r="Q15">
+        <v>0.6474087484098249</v>
+      </c>
+      <c r="R15">
         <v>0.6389904011580309</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.4291354945968412</v>
       </c>
-      <c r="S15">
-        <v>0.548931940285115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0.4335073117976207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.519298245614035</v>
+        <v>0.689766081871345</v>
       </c>
       <c r="C16">
-        <v>0.4908906882591093</v>
+        <v>0.5584599797365755</v>
       </c>
       <c r="D16">
-        <v>0.6557120500782472</v>
+        <v>0.601160029229083</v>
       </c>
       <c r="E16">
-        <v>0.5286774628879892</v>
+        <v>0.6740026850786345</v>
       </c>
       <c r="F16">
-        <v>0.4684343434343434</v>
+        <v>0.4675050301810866</v>
       </c>
       <c r="G16">
-        <v>0.5213178294573644</v>
+        <v>0.5934114386495339</v>
       </c>
       <c r="H16">
-        <v>0.6084905660377358</v>
+        <v>0.6623700623700624</v>
       </c>
       <c r="I16">
-        <v>0.5568917668825162</v>
+        <v>0.5510873472322071</v>
       </c>
       <c r="J16">
-        <v>0.6558558558558558</v>
+        <v>0.7098410087719298</v>
       </c>
       <c r="K16">
-        <v>0.5173611111111112</v>
+        <v>0.6839622641509434</v>
       </c>
       <c r="L16">
-        <v>0.5989304812834224</v>
+        <v>0.5886274509803922</v>
       </c>
       <c r="M16">
-        <v>0.5542424242424242</v>
+        <v>0.5806150978564772</v>
       </c>
       <c r="N16">
-        <v>0.5228365384615384</v>
+        <v>0.6120689655172413</v>
       </c>
       <c r="O16">
-        <v>0.7444444444444445</v>
+        <v>0.6527905691655922</v>
       </c>
       <c r="P16">
-        <v>0.5348906858340821</v>
+        <v>0.8090290381125227</v>
       </c>
       <c r="Q16">
-        <v>0.4673913043478261</v>
+        <v>0.5839950841368878</v>
       </c>
       <c r="R16">
-        <v>0.6521739130434783</v>
+        <v>0.6273148148148149</v>
       </c>
       <c r="S16">
-        <v>0.594294003868472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>0.5382113821138211</v>
+      </c>
+      <c r="T16">
+        <v>0.5458133493205436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.5672506047989092</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="C17">
-        <v>0.5361141587349051</v>
+        <v>0.5602536231884059</v>
       </c>
       <c r="D17">
-        <v>0.5617900452172857</v>
+        <v>0.6454071481358161</v>
       </c>
       <c r="E17">
-        <v>0.5819672733035377</v>
+        <v>0.632660031225605</v>
       </c>
       <c r="F17">
-        <v>0.5242724660381264</v>
+        <v>0.4875</v>
       </c>
       <c r="G17">
-        <v>0.5233906020727287</v>
+        <v>0.5221699726402189</v>
       </c>
       <c r="H17">
-        <v>0.5560753855284414</v>
+        <v>0.6034913071839814</v>
       </c>
       <c r="I17">
-        <v>0.5486854030035647</v>
+        <v>0.5707367522489986</v>
       </c>
       <c r="J17">
-        <v>0.5716327215257885</v>
+        <v>0.6166507177033493</v>
       </c>
       <c r="K17">
-        <v>0.5365748124520054</v>
+        <v>0.5893094761320328</v>
       </c>
       <c r="L17">
-        <v>0.6480070700369726</v>
+        <v>0.6653653806899367</v>
       </c>
       <c r="M17">
-        <v>0.5507380985757648</v>
+        <v>0.5924774197581023</v>
       </c>
       <c r="N17">
-        <v>0.5459531663723888</v>
+        <v>0.6179790840934053</v>
       </c>
       <c r="O17">
-        <v>0.5608982785966626</v>
+        <v>0.61406567366283</v>
       </c>
       <c r="P17">
-        <v>0.7954373665584217</v>
+        <v>0.5556414848583524</v>
       </c>
       <c r="Q17">
-        <v>0.5215858497156093</v>
+        <v>0.8391060772134942</v>
       </c>
       <c r="R17">
-        <v>0.5373831476439344</v>
+        <v>0.6216096023487759</v>
       </c>
       <c r="S17">
-        <v>0.5106368700570273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>0.6302069083447333</v>
+      </c>
+      <c r="T17">
+        <v>0.4991645781119465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.6796689636024029</v>
+        <v>0.6629723559355361</v>
       </c>
       <c r="C18">
         <v>0.6387486895165249</v>
@@ -2653,7 +2764,7 @@
         <v>0.7076671580003764</v>
       </c>
       <c r="F18">
-        <v>0.6188116009230703</v>
+        <v>0.6143587866587363</v>
       </c>
       <c r="G18">
         <v>0.5808145540879023</v>
@@ -2668,39 +2779,42 @@
         <v>0.709644976804104</v>
       </c>
       <c r="K18">
+        <v>0.6827746096091865</v>
+      </c>
+      <c r="L18">
         <v>0.6995215842183127</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.611763878576289</v>
       </c>
-      <c r="M18">
-        <v>0.6211173353079927</v>
-      </c>
       <c r="N18">
+        <v>0.6284291942845988</v>
+      </c>
+      <c r="O18">
         <v>0.6257835157638694</v>
       </c>
-      <c r="O18">
-        <v>0.6399097800284472</v>
-      </c>
       <c r="P18">
-        <v>0.5257487610428787</v>
+        <v>0.6296417938492851</v>
       </c>
       <c r="Q18">
+        <v>0.6843002412219829</v>
+      </c>
+      <c r="R18">
         <v>0.9317589425150592</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.5798052077121845</v>
       </c>
-      <c r="S18">
-        <v>0.5445227071688028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0.5594852446409689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.5553763440860215</v>
+        <v>0.5744888023369037</v>
       </c>
       <c r="C19">
         <v>0.5839080459770115</v>
@@ -2727,90 +2841,96 @@
         <v>0.760942760942761</v>
       </c>
       <c r="K19">
+        <v>0.5602018745493871</v>
+      </c>
+      <c r="L19">
         <v>0.6041666666666666</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.3186813186813187</v>
       </c>
-      <c r="M19">
-        <v>0.6525974025974026</v>
-      </c>
       <c r="N19">
+        <v>0.6157635467980296</v>
+      </c>
+      <c r="O19">
         <v>0.6089872568745809</v>
       </c>
-      <c r="O19">
-        <v>0.5278904665314401</v>
-      </c>
       <c r="P19">
-        <v>0.4912587412587412</v>
+        <v>0.481237322515213</v>
       </c>
       <c r="Q19">
+        <v>0.600211528291909</v>
+      </c>
+      <c r="R19">
         <v>0.5457429931253305</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.8555282555282555</v>
       </c>
-      <c r="S19">
-        <v>0.5595408895265424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0.5488215488215489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>0.5343680709534369</v>
+        <v>0.8323353293413174</v>
       </c>
       <c r="C20">
-        <v>0.7518518518518519</v>
+        <v>0.700091575091575</v>
       </c>
       <c r="D20">
-        <v>0.7154255319148937</v>
+        <v>0.6303030303030304</v>
       </c>
       <c r="E20">
-        <v>0.6559999999999999</v>
+        <v>0.5736657078938958</v>
       </c>
       <c r="F20">
-        <v>0.6713615023474178</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="G20">
-        <v>0.6317204301075269</v>
+        <v>0.6084458934947989</v>
       </c>
       <c r="H20">
-        <v>0.5944749694749695</v>
+        <v>0.6135994430262242</v>
       </c>
       <c r="I20">
-        <v>0.8368055555555556</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="J20">
-        <v>0.634</v>
+        <v>0.6436561201661872</v>
       </c>
       <c r="K20">
-        <v>0.8391608391608392</v>
+        <v>0.6458333333333333</v>
       </c>
       <c r="L20">
-        <v>0.1655172413793103</v>
+        <v>0.5773809523809523</v>
       </c>
       <c r="M20">
-        <v>0.6383333333333334</v>
+        <v>0.4226190476190476</v>
       </c>
       <c r="N20">
-        <v>0.5604575163398693</v>
+        <v>0.4751005687335275</v>
       </c>
       <c r="O20">
-        <v>0.59</v>
+        <v>0.5619794218520333</v>
       </c>
       <c r="P20">
-        <v>0.4784878863826232</v>
+        <v>0.5928040131465144</v>
       </c>
       <c r="Q20">
-        <v>0.627</v>
+        <v>0.3264705882352941</v>
       </c>
       <c r="R20">
-        <v>0.8391608391608392</v>
+        <v>0.5799015799015799</v>
       </c>
       <c r="S20">
-        <v>0.6133486766398158</v>
+        <v>0.8303571428571428</v>
+      </c>
+      <c r="T20">
+        <v>0.7159660958311711</v>
       </c>
     </row>
   </sheetData>
@@ -2820,13 +2940,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2884,72 +3004,78 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8484356703845801</v>
+        <v>0.7953005315987024</v>
       </c>
       <c r="C2">
-        <v>0.6445601908061235</v>
+        <v>0.6362964724265019</v>
       </c>
       <c r="D2">
-        <v>0.6081648400865535</v>
+        <v>0.5497121214694544</v>
       </c>
       <c r="E2">
-        <v>0.6922738629066636</v>
+        <v>0.6675597411640823</v>
       </c>
       <c r="F2">
-        <v>0.5360702356477209</v>
+        <v>0.5511557601182085</v>
       </c>
       <c r="G2">
-        <v>0.5948836870477393</v>
+        <v>0.6701752747159428</v>
       </c>
       <c r="H2">
-        <v>0.6923750397962433</v>
+        <v>0.6537814840605309</v>
       </c>
       <c r="I2">
-        <v>0.5807728835143725</v>
+        <v>0.5877222778919479</v>
       </c>
       <c r="J2">
-        <v>0.6350900339414739</v>
+        <v>0.6130411521934815</v>
       </c>
       <c r="K2">
-        <v>0.7017210863430086</v>
+        <v>0.6621545882233054</v>
       </c>
       <c r="L2">
-        <v>0.6027336646539211</v>
+        <v>0.6375320572699944</v>
       </c>
       <c r="M2">
-        <v>0.649126641089149</v>
+        <v>0.5701608383294553</v>
       </c>
       <c r="N2">
-        <v>0.6806358225546221</v>
+        <v>0.5706661118565193</v>
       </c>
       <c r="O2">
-        <v>0.5935899718863149</v>
+        <v>0.6618743524856061</v>
       </c>
       <c r="P2">
-        <v>0.5988768016231472</v>
+        <v>0.678268143141018</v>
       </c>
       <c r="Q2">
-        <v>0.6110234244734755</v>
+        <v>0.5528329285483788</v>
       </c>
       <c r="R2">
-        <v>0.4980762900727934</v>
+        <v>0.6028040557754037</v>
       </c>
       <c r="S2">
-        <v>0.5226420388627178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>0.5842617911309635</v>
+      </c>
+      <c r="T2">
+        <v>0.5725428420998998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.676860025220681</v>
+        <v>0.7444829760403531</v>
       </c>
       <c r="C3">
         <v>0.8352774274905422</v>
@@ -2961,7 +3087,7 @@
         <v>0.7682849936948297</v>
       </c>
       <c r="F3">
-        <v>0.6270491803278688</v>
+        <v>0.5513871374527113</v>
       </c>
       <c r="G3">
         <v>0.7113808322824716</v>
@@ -2976,39 +3102,42 @@
         <v>0.6284678436317781</v>
       </c>
       <c r="K3">
+        <v>0.7441677175283733</v>
+      </c>
+      <c r="L3">
         <v>0.659047919293821</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.7216267339218159</v>
       </c>
-      <c r="M3">
-        <v>0.6837957124842371</v>
-      </c>
       <c r="N3">
+        <v>0.6565258511979823</v>
+      </c>
+      <c r="O3">
         <v>0.7310844892812105</v>
       </c>
-      <c r="O3">
-        <v>0.7239911727616646</v>
-      </c>
       <c r="P3">
-        <v>0.6205863808322825</v>
+        <v>0.7791614123581336</v>
       </c>
       <c r="Q3">
+        <v>0.7055485498108449</v>
+      </c>
+      <c r="R3">
         <v>0.5881147540983607</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.5313682219419924</v>
       </c>
-      <c r="S3">
-        <v>0.5263240857503153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0.5988335435056746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.809147092938959</v>
+        <v>0.696036320139191</v>
       </c>
       <c r="C4">
         <v>0.739003371030883</v>
@@ -3020,7 +3149,7 @@
         <v>0.7933612440191388</v>
       </c>
       <c r="F4">
-        <v>0.6299432724372915</v>
+        <v>0.6300021748586342</v>
       </c>
       <c r="G4">
         <v>0.7088272074815136</v>
@@ -3035,39 +3164,42 @@
         <v>0.6863264825286356</v>
       </c>
       <c r="K4">
+        <v>0.7348212991155575</v>
+      </c>
+      <c r="L4">
         <v>0.739257104538205</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.70049024938379</v>
       </c>
-      <c r="M4">
-        <v>0.721001884877483</v>
-      </c>
       <c r="N4">
+        <v>0.7345766275192113</v>
+      </c>
+      <c r="O4">
         <v>0.7632167971581847</v>
       </c>
-      <c r="O4">
-        <v>0.7246583659562129</v>
-      </c>
       <c r="P4">
-        <v>0.6511481441206322</v>
+        <v>0.7841316876903002</v>
       </c>
       <c r="Q4">
+        <v>0.8046206684065536</v>
+      </c>
+      <c r="R4">
         <v>0.7667781281716688</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.56921034507757</v>
       </c>
-      <c r="S4">
-        <v>0.5920372988255763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0.5921551036682615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6266934981010147</v>
+        <v>0.668428660506774</v>
       </c>
       <c r="C5">
         <v>0.6144492942576951</v>
@@ -3079,7 +3211,7 @@
         <v>0.7408735332464146</v>
       </c>
       <c r="F5">
-        <v>0.5618303951023185</v>
+        <v>0.5766396462785557</v>
       </c>
       <c r="G5">
         <v>0.6345161838898021</v>
@@ -3094,98 +3226,104 @@
         <v>0.5501813956124937</v>
       </c>
       <c r="K5">
+        <v>0.6793407403208435</v>
+      </c>
+      <c r="L5">
         <v>0.6371946034805283</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.6640496570489202</v>
       </c>
-      <c r="M5">
-        <v>0.6495521795816563</v>
-      </c>
       <c r="N5">
+        <v>0.5735077376565955</v>
+      </c>
+      <c r="O5">
         <v>0.6041749333937986</v>
       </c>
-      <c r="O5">
-        <v>0.6350972167110708</v>
-      </c>
       <c r="P5">
-        <v>0.5373986735445837</v>
+        <v>0.6395470778300549</v>
       </c>
       <c r="Q5">
+        <v>0.6057479734708917</v>
+      </c>
+      <c r="R5">
         <v>0.5700357122612097</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.5580749390624113</v>
       </c>
-      <c r="S5">
-        <v>0.5018989853182926</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>0.5849299926308033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5702457264957265</v>
+        <v>0.7061590964491753</v>
       </c>
       <c r="C6">
-        <v>0.5112179487179487</v>
+        <v>0.5019419842366133</v>
       </c>
       <c r="D6">
-        <v>0.5964209401709402</v>
+        <v>0.4985171040871049</v>
       </c>
       <c r="E6">
-        <v>0.7668269230769231</v>
+        <v>0.5946046965141789</v>
       </c>
       <c r="F6">
-        <v>0.7513354700854701</v>
+        <v>0.8623710083692208</v>
       </c>
       <c r="G6">
-        <v>0.6196581196581197</v>
+        <v>0.6097505484683513</v>
       </c>
       <c r="H6">
-        <v>0.6055021367521367</v>
+        <v>0.5192735841391078</v>
       </c>
       <c r="I6">
-        <v>0.5162927350427351</v>
+        <v>0.4382587145526936</v>
       </c>
       <c r="J6">
-        <v>0.5811965811965812</v>
+        <v>0.5443040546030714</v>
       </c>
       <c r="K6">
-        <v>0.7526709401709402</v>
+        <v>0.654107418542293</v>
       </c>
       <c r="L6">
-        <v>0.5641025641025641</v>
+        <v>0.6763996099780613</v>
       </c>
       <c r="M6">
-        <v>0.610309829059829</v>
+        <v>0.416640936052653</v>
       </c>
       <c r="N6">
-        <v>0.6800213675213675</v>
+        <v>0.4539408466726254</v>
       </c>
       <c r="O6">
-        <v>0.6274038461538461</v>
+        <v>0.6359632729341025</v>
       </c>
       <c r="P6">
-        <v>0.4965277777777778</v>
+        <v>0.5159218331031121</v>
       </c>
       <c r="Q6">
-        <v>0.6359508547008548</v>
+        <v>0.5226009588039328</v>
       </c>
       <c r="R6">
-        <v>0.5381944444444444</v>
+        <v>0.655427805314049</v>
       </c>
       <c r="S6">
-        <v>0.5729166666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>0.4589014382058991</v>
+      </c>
+      <c r="T6">
+        <v>0.4093808401722597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5920136205502372</v>
+        <v>0.6690602017650882</v>
       </c>
       <c r="C7">
         <v>0.5882693029352001</v>
@@ -3197,7 +3335,7 @@
         <v>0.6953859819705658</v>
       </c>
       <c r="F7">
-        <v>0.5629199556992298</v>
+        <v>0.6052647541040512</v>
       </c>
       <c r="G7">
         <v>0.9648687839979362</v>
@@ -3212,39 +3350,42 @@
         <v>0.7715313107130473</v>
       </c>
       <c r="K7">
+        <v>0.7052099627769757</v>
+      </c>
+      <c r="L7">
         <v>0.6685931326498211</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.5203703521005048</v>
       </c>
-      <c r="M7">
-        <v>0.6757001103865282</v>
-      </c>
       <c r="N7">
+        <v>0.5839446430378841</v>
+      </c>
+      <c r="O7">
         <v>0.6569668295973285</v>
       </c>
-      <c r="O7">
-        <v>0.574523969515633</v>
-      </c>
       <c r="P7">
-        <v>0.5070951023240365</v>
+        <v>0.6006660462220292</v>
       </c>
       <c r="Q7">
+        <v>0.5555001978626449</v>
+      </c>
+      <c r="R7">
         <v>0.6399102657278879</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.5019435483075345</v>
       </c>
-      <c r="S7">
-        <v>0.5971353033364063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0.5249551748846349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6386574870912221</v>
+        <v>0.6152409638554217</v>
       </c>
       <c r="C8">
         <v>0.6021170395869191</v>
@@ -3256,7 +3397,7 @@
         <v>0.6300172117039586</v>
       </c>
       <c r="F8">
-        <v>0.5071686746987952</v>
+        <v>0.5032788296041308</v>
       </c>
       <c r="G8">
         <v>0.564354561101549</v>
@@ -3271,39 +3412,42 @@
         <v>0.6255507745266782</v>
       </c>
       <c r="K8">
+        <v>0.6565576592082616</v>
+      </c>
+      <c r="L8">
         <v>0.6036058519793459</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.5661359724612737</v>
       </c>
-      <c r="M8">
-        <v>0.6178141135972461</v>
-      </c>
       <c r="N8">
+        <v>0.6275043029259897</v>
+      </c>
+      <c r="O8">
         <v>0.6376247848537004</v>
       </c>
-      <c r="O8">
-        <v>0.5625387263339071</v>
-      </c>
       <c r="P8">
-        <v>0.5427882960413081</v>
+        <v>0.5529259896729776</v>
       </c>
       <c r="Q8">
+        <v>0.5529690189328744</v>
+      </c>
+      <c r="R8">
         <v>0.5646643717728055</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.4997676419965577</v>
       </c>
-      <c r="S8">
-        <v>0.5197332185886403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0.5263253012048192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6433113230618732</v>
+        <v>0.5422763920769313</v>
       </c>
       <c r="C9">
         <v>0.5582930126234686</v>
@@ -3315,7 +3459,7 @@
         <v>0.5886737140426161</v>
       </c>
       <c r="F9">
-        <v>0.5275482256135393</v>
+        <v>0.5190378232242571</v>
       </c>
       <c r="G9">
         <v>0.5108065793333066</v>
@@ -3330,39 +3474,42 @@
         <v>0.5350760687248906</v>
       </c>
       <c r="K9">
+        <v>0.573853150048086</v>
+      </c>
+      <c r="L9">
         <v>0.5932133816788671</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.6217736551441048</v>
       </c>
-      <c r="M9">
-        <v>0.5797874306330449</v>
-      </c>
       <c r="N9">
+        <v>0.5496013538007627</v>
+      </c>
+      <c r="O9">
         <v>0.5660831074508582</v>
       </c>
-      <c r="O9">
-        <v>0.5895925780012095</v>
-      </c>
       <c r="P9">
-        <v>0.5560805832289438</v>
+        <v>0.5389335673546547</v>
       </c>
       <c r="Q9">
+        <v>0.5717256477460114</v>
+      </c>
+      <c r="R9">
         <v>0.5826081110091462</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.5179337710224042</v>
       </c>
-      <c r="S9">
-        <v>0.5041111003641642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0.5430580358722602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.618913175277074</v>
+        <v>0.6561486908355507</v>
       </c>
       <c r="C10">
         <v>0.5272813777912734</v>
@@ -3374,7 +3521,7 @@
         <v>0.7356908723507355</v>
       </c>
       <c r="F10">
-        <v>0.5013073244502154</v>
+        <v>0.5155625884407354</v>
       </c>
       <c r="G10">
         <v>0.7700775760037811</v>
@@ -3389,98 +3536,104 @@
         <v>0.9347426869289964</v>
       </c>
       <c r="K10">
+        <v>0.7477331006368453</v>
+      </c>
+      <c r="L10">
         <v>0.6198810250459845</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.5524405891039574</v>
       </c>
-      <c r="M10">
-        <v>0.7031166191384981</v>
-      </c>
       <c r="N10">
+        <v>0.6645750640453294</v>
+      </c>
+      <c r="O10">
         <v>0.6605996896055268</v>
       </c>
-      <c r="O10">
-        <v>0.6023710186378539</v>
-      </c>
       <c r="P10">
-        <v>0.546689821187044</v>
+        <v>0.5690803479263417</v>
       </c>
       <c r="Q10">
+        <v>0.5378778191303568</v>
+      </c>
+      <c r="R10">
         <v>0.5842312494333523</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.5001308557969119</v>
       </c>
-      <c r="S10">
-        <v>0.5454551715588369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0.5022062513504463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.7174826820294518</v>
+        <v>0.7323750803023206</v>
       </c>
       <c r="C11">
-        <v>0.6315605231518236</v>
+        <v>0.6037975212710504</v>
       </c>
       <c r="D11">
-        <v>0.6616533975720968</v>
+        <v>0.5030231210963261</v>
       </c>
       <c r="E11">
-        <v>0.6624397068463513</v>
+        <v>0.7596697644379946</v>
       </c>
       <c r="F11">
-        <v>0.554264139644091</v>
+        <v>0.5715584323621978</v>
       </c>
       <c r="G11">
-        <v>0.6061800798918189</v>
+        <v>0.7254650282860392</v>
       </c>
       <c r="H11">
-        <v>0.6513876194923695</v>
+        <v>0.6425367257811188</v>
       </c>
       <c r="I11">
-        <v>0.6056680084834127</v>
+        <v>0.6448103585514613</v>
       </c>
       <c r="J11">
-        <v>0.6673922618873979</v>
+        <v>0.6614065980567052</v>
       </c>
       <c r="K11">
-        <v>0.6385333975913839</v>
+        <v>0.9286045184292226</v>
       </c>
       <c r="L11">
-        <v>0.6027448136496443</v>
+        <v>0.6731377753207187</v>
       </c>
       <c r="M11">
-        <v>0.5900668272475029</v>
+        <v>0.5617058814997957</v>
       </c>
       <c r="N11">
-        <v>0.6471966621816219</v>
+        <v>0.617867596936525</v>
       </c>
       <c r="O11">
-        <v>0.6092568479304624</v>
+        <v>0.7405610114210589</v>
       </c>
       <c r="P11">
-        <v>0.5716678170593552</v>
+        <v>0.5429174846199194</v>
       </c>
       <c r="Q11">
-        <v>0.6570177530142659</v>
+        <v>0.6017081679297486</v>
       </c>
       <c r="R11">
-        <v>0.5031642830674813</v>
+        <v>0.672396391877031</v>
       </c>
       <c r="S11">
-        <v>0.5620411638872006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.4929990879874553</v>
+      </c>
+      <c r="T11">
+        <v>0.5396819302928935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6179537985572501</v>
+        <v>0.6173760904873271</v>
       </c>
       <c r="C12">
         <v>0.5625039590739441</v>
@@ -3492,7 +3645,7 @@
         <v>0.6171189090439184</v>
       </c>
       <c r="F12">
-        <v>0.5290006917293995</v>
+        <v>0.6091893590227613</v>
       </c>
       <c r="G12">
         <v>0.5736945191213769</v>
@@ -3507,39 +3660,42 @@
         <v>0.545075165394273</v>
       </c>
       <c r="K12">
+        <v>0.5891254057258978</v>
+      </c>
+      <c r="L12">
         <v>0.8810301447057363</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.5634731403754596</v>
       </c>
-      <c r="M12">
-        <v>0.5414758920902137</v>
-      </c>
       <c r="N12">
+        <v>0.5786658490915034</v>
+      </c>
+      <c r="O12">
         <v>0.5686370397022269</v>
       </c>
-      <c r="O12">
-        <v>0.6620344445767654</v>
-      </c>
       <c r="P12">
-        <v>0.5373470530553915</v>
+        <v>0.6139655858289224</v>
       </c>
       <c r="Q12">
+        <v>0.5998117381158101</v>
+      </c>
+      <c r="R12">
         <v>0.582346204229938</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.4955037589031655</v>
       </c>
-      <c r="S12">
-        <v>0.4809761746097303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0.5116086382559297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.6308779761904761</v>
+        <v>0.5587053571428571</v>
       </c>
       <c r="C13">
         <v>0.65</v>
@@ -3551,7 +3707,7 @@
         <v>0.6994047619047619</v>
       </c>
       <c r="F13">
-        <v>0.5359375</v>
+        <v>0.4875</v>
       </c>
       <c r="G13">
         <v>0.5452380952380953</v>
@@ -3566,98 +3722,104 @@
         <v>0.6038690476190476</v>
       </c>
       <c r="K13">
+        <v>0.5743303571428571</v>
+      </c>
+      <c r="L13">
         <v>0.6084821428571429</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.8077380952380953</v>
       </c>
-      <c r="M13">
-        <v>0.6161458333333334</v>
-      </c>
       <c r="N13">
+        <v>0.5823660714285714</v>
+      </c>
+      <c r="O13">
         <v>0.6969494047619047</v>
       </c>
-      <c r="O13">
-        <v>0.6464285714285714</v>
-      </c>
       <c r="P13">
-        <v>0.6085565476190475</v>
+        <v>0.5410714285714285</v>
       </c>
       <c r="Q13">
+        <v>0.5681547619047619</v>
+      </c>
+      <c r="R13">
         <v>0.6090029761904762</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.5078125</v>
       </c>
-      <c r="S13">
-        <v>0.4895089285714286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0.4915178571428571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.6239543033562968</v>
+        <v>0.6048977903816614</v>
       </c>
       <c r="C14">
-        <v>0.6580374221570235</v>
+        <v>0.5958289022805152</v>
       </c>
       <c r="D14">
-        <v>0.6008207370333616</v>
+        <v>0.5760427744298712</v>
       </c>
       <c r="E14">
-        <v>0.6899057015336085</v>
+        <v>0.659033439678601</v>
       </c>
       <c r="F14">
-        <v>0.4562593183855642</v>
+        <v>0.5507562330142975</v>
       </c>
       <c r="G14">
-        <v>0.5959284347988667</v>
+        <v>0.5539524991137894</v>
       </c>
       <c r="H14">
-        <v>0.6622130176947453</v>
+        <v>0.6211154436960888</v>
       </c>
       <c r="I14">
-        <v>0.5786363876064873</v>
+        <v>0.5747252747252747</v>
       </c>
       <c r="J14">
-        <v>0.6137909709338281</v>
+        <v>0.6061443932411674</v>
       </c>
       <c r="K14">
-        <v>0.5825626938583749</v>
+        <v>0.6437315372799244</v>
       </c>
       <c r="L14">
-        <v>0.6106365026630807</v>
+        <v>0.6079168143684273</v>
       </c>
       <c r="M14">
-        <v>0.7574630979946595</v>
+        <v>0.5635235732009926</v>
       </c>
       <c r="N14">
-        <v>0.6575484316348104</v>
+        <v>0.8485288904643744</v>
       </c>
       <c r="O14">
-        <v>0.6534711136040039</v>
+        <v>0.621209972822876</v>
       </c>
       <c r="P14">
-        <v>0.5860527438600529</v>
+        <v>0.5823112371499468</v>
       </c>
       <c r="Q14">
-        <v>0.6450552031947381</v>
+        <v>0.646892354956871</v>
       </c>
       <c r="R14">
-        <v>0.5218679437948541</v>
+        <v>0.5666075859624247</v>
       </c>
       <c r="S14">
-        <v>0.503478064939859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>0.5147583599196502</v>
+      </c>
+      <c r="T14">
+        <v>0.5096656032139903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7143954820056475</v>
+        <v>0.6239564700544125</v>
       </c>
       <c r="C15">
         <v>0.6508683114146108</v>
@@ -3669,7 +3831,7 @@
         <v>0.6824938968826288</v>
       </c>
       <c r="F15">
-        <v>0.5298049627437965</v>
+        <v>0.5285955892555134</v>
       </c>
       <c r="G15">
         <v>0.6119842350197062</v>
@@ -3684,157 +3846,166 @@
         <v>0.5944635069206163</v>
       </c>
       <c r="K15">
+        <v>0.6811423985720018</v>
+      </c>
+      <c r="L15">
         <v>0.6536789329013339</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.5417674477906902</v>
       </c>
-      <c r="M15">
-        <v>0.7223334720831599</v>
-      </c>
       <c r="N15">
+        <v>0.6595383005771243</v>
+      </c>
+      <c r="O15">
         <v>0.9338035827455216</v>
       </c>
-      <c r="O15">
-        <v>0.5314909606362992</v>
-      </c>
       <c r="P15">
-        <v>0.5509568113039859</v>
+        <v>0.5099959875050156</v>
       </c>
       <c r="Q15">
+        <v>0.612977608777989</v>
+      </c>
+      <c r="R15">
         <v>0.6054281182148522</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.4997442503196871</v>
       </c>
-      <c r="S15">
-        <v>0.5523514345607068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0.4946971316285855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.5135802469135803</v>
+        <v>0.6207441860465116</v>
       </c>
       <c r="C16">
-        <v>0.4904761904761905</v>
+        <v>0.5536744186046512</v>
       </c>
       <c r="D16">
-        <v>0.6754850088183422</v>
+        <v>0.6030232558139534</v>
       </c>
       <c r="E16">
-        <v>0.5299823633156966</v>
+        <v>0.6687906976744187</v>
       </c>
       <c r="F16">
-        <v>0.4647266313932981</v>
+        <v>0.4699534883720931</v>
       </c>
       <c r="G16">
-        <v>0.5194003527336861</v>
+        <v>0.5689767441860465</v>
       </c>
       <c r="H16">
-        <v>0.5405643738977072</v>
+        <v>0.5726511627906977</v>
       </c>
       <c r="I16">
-        <v>0.5650793650793651</v>
+        <v>0.5528837209302326</v>
       </c>
       <c r="J16">
-        <v>0.5305114638447972</v>
+        <v>0.5712093023255814</v>
       </c>
       <c r="K16">
-        <v>0.517636684303351</v>
+        <v>0.6433023255813953</v>
       </c>
       <c r="L16">
-        <v>0.5587301587301587</v>
+        <v>0.5840930232558139</v>
       </c>
       <c r="M16">
-        <v>0.5631393298059965</v>
+        <v>0.5482790697674419</v>
       </c>
       <c r="N16">
-        <v>0.5268077601410934</v>
+        <v>0.6124651162790697</v>
       </c>
       <c r="O16">
-        <v>0.7483245149911817</v>
+        <v>0.6543255813953488</v>
       </c>
       <c r="P16">
-        <v>0.5410934744268077</v>
+        <v>0.8167906976744186</v>
       </c>
       <c r="Q16">
-        <v>0.4746031746031746</v>
+        <v>0.5826511627906977</v>
       </c>
       <c r="R16">
-        <v>0.5061728395061729</v>
+        <v>0.5588372093023256</v>
       </c>
       <c r="S16">
-        <v>0.5687830687830688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>0.5043720930232558</v>
+      </c>
+      <c r="T16">
+        <v>0.5426511627906977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.6084359712779044</v>
+        <v>0.5576136363636364</v>
       </c>
       <c r="C17">
-        <v>0.5563868519171904</v>
+        <v>0.5404951298701298</v>
       </c>
       <c r="D17">
-        <v>0.6040024030438556</v>
+        <v>0.6453327922077923</v>
       </c>
       <c r="E17">
-        <v>0.6373143600942146</v>
+        <v>0.6324188311688312</v>
       </c>
       <c r="F17">
-        <v>0.5152975673948907</v>
+        <v>0.4973133116883117</v>
       </c>
       <c r="G17">
-        <v>0.5410181944749064</v>
+        <v>0.5210470779220779</v>
       </c>
       <c r="H17">
-        <v>0.5808732966519496</v>
+        <v>0.5888555194805195</v>
       </c>
       <c r="I17">
-        <v>0.5829257535735741</v>
+        <v>0.5699512987012987</v>
       </c>
       <c r="J17">
-        <v>0.5677632143572334</v>
+        <v>0.5791558441558442</v>
       </c>
       <c r="K17">
-        <v>0.5637673433968742</v>
+        <v>0.556112012987013</v>
       </c>
       <c r="L17">
-        <v>0.5819513765054783</v>
+        <v>0.6578165584415584</v>
       </c>
       <c r="M17">
-        <v>0.5889786110025079</v>
+        <v>0.5240178571428571</v>
       </c>
       <c r="N17">
-        <v>0.5655692925324458</v>
+        <v>0.6002678571428571</v>
       </c>
       <c r="O17">
-        <v>0.5898503819123271</v>
+        <v>0.6093993506493507</v>
       </c>
       <c r="P17">
-        <v>0.7801337408336273</v>
+        <v>0.5554788961038961</v>
       </c>
       <c r="Q17">
-        <v>0.5341522118492948</v>
+        <v>0.8390097402597403</v>
       </c>
       <c r="R17">
-        <v>0.5367380586838567</v>
+        <v>0.6143100649350649</v>
       </c>
       <c r="S17">
-        <v>0.511978553787178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>0.6236120129870131</v>
+      </c>
+      <c r="T17">
+        <v>0.4993425324675325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.6571160940185796</v>
+        <v>0.6646539141759027</v>
       </c>
       <c r="C18">
         <v>0.6624921710963776</v>
@@ -3846,7 +4017,7 @@
         <v>0.7435968535394921</v>
       </c>
       <c r="F18">
-        <v>0.5810646757109472</v>
+        <v>0.5574703605296339</v>
       </c>
       <c r="G18">
         <v>0.5950435797472127</v>
@@ -3861,39 +4032,42 @@
         <v>0.6767593995127457</v>
       </c>
       <c r="K18">
+        <v>0.6729987666890153</v>
+      </c>
+      <c r="L18">
         <v>0.7281004527658448</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.549698018149261</v>
       </c>
-      <c r="M18">
-        <v>0.6379418329705137</v>
-      </c>
       <c r="N18">
+        <v>0.6016446905548244</v>
+      </c>
+      <c r="O18">
         <v>0.6298356413079167</v>
       </c>
-      <c r="O18">
-        <v>0.6598517267733328</v>
-      </c>
       <c r="P18">
-        <v>0.5128587155355798</v>
+        <v>0.6510198957617696</v>
       </c>
       <c r="Q18">
+        <v>0.7167744089350208</v>
+      </c>
+      <c r="R18">
         <v>0.927169813403083</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.5720052201887766</v>
       </c>
-      <c r="S18">
-        <v>0.5522156831908266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0.5227652101457073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.5529019003595275</v>
+        <v>0.539291217257319</v>
       </c>
       <c r="C19">
         <v>0.5187467899332306</v>
@@ -3920,90 +4094,96 @@
         <v>0.6194144838212634</v>
       </c>
       <c r="K19">
+        <v>0.5428864920390344</v>
+      </c>
+      <c r="L19">
         <v>0.6129943502824858</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.4915254237288136</v>
       </c>
-      <c r="M19">
-        <v>0.620698510529019</v>
-      </c>
       <c r="N19">
+        <v>0.6086286594761171</v>
+      </c>
+      <c r="O19">
         <v>0.5834617360041089</v>
       </c>
-      <c r="O19">
-        <v>0.5282485875706214</v>
-      </c>
       <c r="P19">
-        <v>0.4922958397534669</v>
+        <v>0.4809964047252183</v>
       </c>
       <c r="Q19">
+        <v>0.5973292244478685</v>
+      </c>
+      <c r="R19">
         <v>0.544427324088341</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.8715973292244479</v>
       </c>
-      <c r="S19">
-        <v>0.5639445300462249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0.522342064714946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>0.5199742268041238</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C20">
-        <v>0.5730240549828178</v>
+        <v>0.5667277446938463</v>
       </c>
       <c r="D20">
-        <v>0.5260953608247423</v>
+        <v>0.5164147198045503</v>
       </c>
       <c r="E20">
-        <v>0.5837628865979381</v>
+        <v>0.5351962131623149</v>
       </c>
       <c r="F20">
-        <v>0.5156786941580757</v>
+        <v>0.5079401435333638</v>
       </c>
       <c r="G20">
-        <v>0.6368127147766323</v>
+        <v>0.6066575049625897</v>
       </c>
       <c r="H20">
-        <v>0.5664733676975945</v>
+        <v>0.5747442357611849</v>
       </c>
       <c r="I20">
-        <v>0.5104166666666666</v>
+        <v>0.5034356390288593</v>
       </c>
       <c r="J20">
-        <v>0.5719501718213058</v>
+        <v>0.5686364330432127</v>
       </c>
       <c r="K20">
-        <v>0.5208333333333334</v>
+        <v>0.5288593678424187</v>
       </c>
       <c r="L20">
+        <v>0.503970071766682</v>
+      </c>
+      <c r="M20">
+        <v>0.4960299282333181</v>
+      </c>
+      <c r="N20">
+        <v>0.4725912353030997</v>
+      </c>
+      <c r="O20">
+        <v>0.5193159260955871</v>
+      </c>
+      <c r="P20">
+        <v>0.5819209039548022</v>
+      </c>
+      <c r="Q20">
         <v>0.5</v>
       </c>
-      <c r="M20">
-        <v>0.5891323024054983</v>
-      </c>
-      <c r="N20">
-        <v>0.515893470790378</v>
-      </c>
-      <c r="O20">
-        <v>0.5579896907216495</v>
-      </c>
-      <c r="P20">
-        <v>0.4889390034364261</v>
-      </c>
-      <c r="Q20">
-        <v>0.5681915807560137</v>
-      </c>
       <c r="R20">
-        <v>0.5208333333333334</v>
+        <v>0.5471064284623607</v>
       </c>
       <c r="S20">
-        <v>0.6269329896907216</v>
+        <v>0.5169491525423728</v>
+      </c>
+      <c r="T20">
+        <v>0.6906397923347076</v>
       </c>
     </row>
   </sheetData>
@@ -4013,13 +4193,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4077,72 +4257,78 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8331272841249479</v>
+        <v>0.7841506040103836</v>
       </c>
       <c r="C2">
-        <v>0.5749053809707756</v>
+        <v>0.5448518114263429</v>
       </c>
       <c r="D2">
-        <v>0.4162054921146215</v>
+        <v>0.5581246600154226</v>
       </c>
       <c r="E2">
-        <v>0.6287085362391632</v>
+        <v>0.6100772684190203</v>
       </c>
       <c r="F2">
-        <v>0.2949465824387345</v>
+        <v>0.5365066824675753</v>
       </c>
       <c r="G2">
-        <v>0.5883100170731086</v>
+        <v>0.5869495020271367</v>
       </c>
       <c r="H2">
-        <v>0.6241977393789788</v>
+        <v>0.5790624572912396</v>
       </c>
       <c r="I2">
-        <v>0.4791864358589667</v>
+        <v>0.4690958569237688</v>
       </c>
       <c r="J2">
-        <v>0.6444698368052503</v>
+        <v>0.4362439625015384</v>
       </c>
       <c r="K2">
-        <v>0.6796566281324399</v>
+        <v>0.636104194877619</v>
       </c>
       <c r="L2">
-        <v>0.4916531416059918</v>
+        <v>0.546412883373192</v>
       </c>
       <c r="M2">
-        <v>0.5870793647200723</v>
+        <v>0.4828670927624723</v>
       </c>
       <c r="N2">
-        <v>0.6480005869836378</v>
+        <v>0.488900044242214</v>
       </c>
       <c r="O2">
-        <v>0.3902886544773333</v>
+        <v>0.6163953690664934</v>
       </c>
       <c r="P2">
-        <v>0.5389185349153915</v>
+        <v>0.6257300869761936</v>
       </c>
       <c r="Q2">
-        <v>0.6220819863168182</v>
+        <v>0.5588663513956823</v>
       </c>
       <c r="R2">
-        <v>0.1994843730634608</v>
+        <v>0.5202168441432721</v>
       </c>
       <c r="S2">
-        <v>0.4983941355300578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>0.5549860860027218</v>
+      </c>
+      <c r="T2">
+        <v>0.531861861216982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6715641261095806</v>
+        <v>0.6726407805232778</v>
       </c>
       <c r="C3">
         <v>0.8483824041633372</v>
@@ -4154,7 +4340,7 @@
         <v>0.7277743715511955</v>
       </c>
       <c r="F3">
-        <v>0.5076464746772592</v>
+        <v>0.5448759207609241</v>
       </c>
       <c r="G3">
         <v>0.6716066963620406</v>
@@ -4169,39 +4355,42 @@
         <v>0.6637016099980604</v>
       </c>
       <c r="K3">
+        <v>0.7248017500683621</v>
+      </c>
+      <c r="L3">
         <v>0.6507276507276507</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.6874446488180395</v>
       </c>
-      <c r="M3">
-        <v>0.6676325702694871</v>
-      </c>
       <c r="N3">
+        <v>0.6209741470135344</v>
+      </c>
+      <c r="O3">
         <v>0.7208600528102602</v>
       </c>
-      <c r="O3">
-        <v>0.6431507545717314</v>
-      </c>
       <c r="P3">
-        <v>0.5424177655899236</v>
+        <v>0.6385836385836385</v>
       </c>
       <c r="Q3">
+        <v>0.6176999101527403</v>
+      </c>
+      <c r="R3">
         <v>0.6006343645702653</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.2314350008655011</v>
       </c>
-      <c r="S3">
-        <v>0.5252547684259876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0.5014626362911089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7285751821991121</v>
+        <v>0.5328381462174513</v>
       </c>
       <c r="C4">
         <v>0.5516122364613476</v>
@@ -4213,7 +4402,7 @@
         <v>0.6105620963505455</v>
       </c>
       <c r="F4">
-        <v>0.3998680530938595</v>
+        <v>0.4919854849426155</v>
       </c>
       <c r="G4">
         <v>0.6168170217817081</v>
@@ -4228,39 +4417,42 @@
         <v>0.7113211062349922</v>
       </c>
       <c r="K4">
+        <v>0.5067876081555047</v>
+      </c>
+      <c r="L4">
         <v>0.5558070666504402</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.688784285906588</v>
       </c>
-      <c r="M4">
-        <v>0.5618662039714671</v>
-      </c>
       <c r="N4">
+        <v>0.5534124955811703</v>
+      </c>
+      <c r="O4">
         <v>0.62072409221448</v>
       </c>
-      <c r="O4">
-        <v>0.4973362802933087</v>
-      </c>
       <c r="P4">
-        <v>0.6017859497057072</v>
+        <v>0.6350681361783295</v>
       </c>
       <c r="Q4">
+        <v>0.6226846360373998</v>
+      </c>
+      <c r="R4">
         <v>0.7766423494904674</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.2807922744584443</v>
       </c>
-      <c r="S4">
-        <v>0.5832893732428893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0.3371173635037166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6297595482068002</v>
+        <v>0.5996831435924921</v>
       </c>
       <c r="C5">
         <v>0.5858987090367428</v>
@@ -4272,7 +4464,7 @@
         <v>0.7390176154143666</v>
       </c>
       <c r="F5">
-        <v>0.5203897380888531</v>
+        <v>0.5695963988200277</v>
       </c>
       <c r="G5">
         <v>0.6100439771521002</v>
@@ -4287,98 +4479,104 @@
         <v>0.5262963986368241</v>
       </c>
       <c r="K5">
+        <v>0.6470289487049264</v>
+      </c>
+      <c r="L5">
         <v>0.6075184033210126</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.6627755704792377</v>
       </c>
-      <c r="M5">
-        <v>0.6517995968902965</v>
-      </c>
       <c r="N5">
+        <v>0.5751339077782953</v>
+      </c>
+      <c r="O5">
         <v>0.6022017505379039</v>
       </c>
-      <c r="O5">
-        <v>0.5504173429167634</v>
-      </c>
       <c r="P5">
-        <v>0.5242139959432048</v>
+        <v>0.5836542575952075</v>
       </c>
       <c r="Q5">
+        <v>0.5863095238095237</v>
+      </c>
+      <c r="R5">
         <v>0.5676748176748176</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.3849845491150856</v>
       </c>
-      <c r="S5">
-        <v>0.4430521320838717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>0.4818683847215831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4237362637362637</v>
+        <v>0.7070097111558868</v>
       </c>
       <c r="C6">
-        <v>0.5115819209039548</v>
+        <v>0.433413640854015</v>
       </c>
       <c r="D6">
-        <v>0.5887445887445888</v>
+        <v>0.4326225708949907</v>
       </c>
       <c r="E6">
-        <v>0.6924082453494218</v>
+        <v>0.5868742368742368</v>
       </c>
       <c r="F6">
-        <v>0.7513354700854701</v>
+        <v>0.8651950080881765</v>
       </c>
       <c r="G6">
-        <v>0.3253348532345398</v>
+        <v>0.5500876586706225</v>
       </c>
       <c r="H6">
-        <v>0.3426436781609196</v>
+        <v>0.4859626934521082</v>
       </c>
       <c r="I6">
-        <v>0.4107108456944712</v>
+        <v>0.4330108766477871</v>
       </c>
       <c r="J6">
-        <v>0.2627828054298643</v>
+        <v>0.4611280487804878</v>
       </c>
       <c r="K6">
-        <v>0.7057522123893805</v>
+        <v>0.6465198139117763</v>
       </c>
       <c r="L6">
-        <v>0.2330393487109905</v>
+        <v>0.6765809904918257</v>
       </c>
       <c r="M6">
-        <v>0.5215461155759663</v>
+        <v>0.3614565644457763</v>
       </c>
       <c r="N6">
-        <v>0.5869218500797448</v>
+        <v>0.4420180119545535</v>
       </c>
       <c r="O6">
-        <v>0.5426629348260695</v>
+        <v>0.6364356144704192</v>
       </c>
       <c r="P6">
-        <v>0.4336474694589878</v>
+        <v>0.5150242352955718</v>
       </c>
       <c r="Q6">
-        <v>0.5535085564562352</v>
+        <v>0.455701991752483</v>
       </c>
       <c r="R6">
-        <v>0.5381944444444444</v>
+        <v>0.6536305077569782</v>
       </c>
       <c r="S6">
-        <v>0.3667783459707283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>0.366723620171896</v>
+      </c>
+      <c r="T6">
+        <v>0.4015936723562533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.568660070741654</v>
+        <v>0.6615602911935576</v>
       </c>
       <c r="C7">
         <v>0.5079642670212022</v>
@@ -4390,7 +4588,7 @@
         <v>0.6590142202705181</v>
       </c>
       <c r="F7">
-        <v>0.4477422707052937</v>
+        <v>0.6000336258838576</v>
       </c>
       <c r="G7">
         <v>0.9645037641174944</v>
@@ -4405,39 +4603,42 @@
         <v>0.7748418343809036</v>
       </c>
       <c r="K7">
+        <v>0.6766181586369824</v>
+      </c>
+      <c r="L7">
         <v>0.6683925168086764</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.434230694483969</v>
       </c>
-      <c r="M7">
-        <v>0.6566824320819182</v>
-      </c>
       <c r="N7">
+        <v>0.5805569540827684</v>
+      </c>
+      <c r="O7">
         <v>0.6587414358723352</v>
       </c>
-      <c r="O7">
-        <v>0.4838587913517515</v>
-      </c>
       <c r="P7">
-        <v>0.4263426703545385</v>
+        <v>0.5314273953914196</v>
       </c>
       <c r="Q7">
+        <v>0.4863209400620194</v>
+      </c>
+      <c r="R7">
         <v>0.6378882841259084</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.2967869149344647</v>
       </c>
-      <c r="S7">
-        <v>0.5965774604533667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0.3952695399869274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6386871688848689</v>
+        <v>0.5847864007935151</v>
       </c>
       <c r="C8">
         <v>0.5543587747543729</v>
@@ -4449,7 +4650,7 @@
         <v>0.6253881752519354</v>
       </c>
       <c r="F8">
-        <v>0.4437671703296703</v>
+        <v>0.5028554175293305</v>
       </c>
       <c r="G8">
         <v>0.5531755582297098</v>
@@ -4464,39 +4665,42 @@
         <v>0.6053850321004161</v>
       </c>
       <c r="K8">
+        <v>0.6266334984870454</v>
+      </c>
+      <c r="L8">
         <v>0.5988408805847498</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.5625916230366492</v>
       </c>
-      <c r="M8">
-        <v>0.6145097125499435</v>
-      </c>
       <c r="N8">
+        <v>0.6255966105416804</v>
+      </c>
+      <c r="O8">
         <v>0.6321443193116759</v>
       </c>
-      <c r="O8">
-        <v>0.5104508061240874</v>
-      </c>
       <c r="P8">
-        <v>0.5398438022069458</v>
+        <v>0.4904860395452132</v>
       </c>
       <c r="Q8">
+        <v>0.4647266580131011</v>
+      </c>
+      <c r="R8">
         <v>0.5551423931275015</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.3348158551810237</v>
       </c>
-      <c r="S8">
-        <v>0.5189953984432116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0.4382039300263599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6354988148920113</v>
+        <v>0.5172630105918402</v>
       </c>
       <c r="C9">
         <v>0.542832118910634</v>
@@ -4508,7 +4712,7 @@
         <v>0.5788664168022064</v>
       </c>
       <c r="F9">
-        <v>0.4535998982360923</v>
+        <v>0.4800980360709063</v>
       </c>
       <c r="G9">
         <v>0.4531653897117465</v>
@@ -4523,39 +4727,42 @@
         <v>0.3657176224754055</v>
       </c>
       <c r="K9">
+        <v>0.5440069309657012</v>
+      </c>
+      <c r="L9">
         <v>0.593955727435696</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.5810371884237802</v>
       </c>
-      <c r="M9">
-        <v>0.5763833554883568</v>
-      </c>
       <c r="N9">
+        <v>0.5465852187243697</v>
+      </c>
+      <c r="O9">
         <v>0.5646020087140807</v>
       </c>
-      <c r="O9">
-        <v>0.586261192346907</v>
-      </c>
       <c r="P9">
-        <v>0.5279203405290361</v>
+        <v>0.526749805120493</v>
       </c>
       <c r="Q9">
+        <v>0.5543372029272247</v>
+      </c>
+      <c r="R9">
         <v>0.5314418450306952</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.4259644779998762</v>
       </c>
-      <c r="S9">
-        <v>0.4301402951238297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0.526633763804677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4197010740092451</v>
+        <v>0.5639329712267881</v>
       </c>
       <c r="C10">
         <v>0.1888715679135846</v>
@@ -4567,7 +4774,7 @@
         <v>0.594831580240552</v>
       </c>
       <c r="F10">
-        <v>0.1323923957922492</v>
+        <v>0.1894410156179502</v>
       </c>
       <c r="G10">
         <v>0.6984820121513164</v>
@@ -4582,98 +4789,104 @@
         <v>0.9180173466887451</v>
       </c>
       <c r="K10">
+        <v>0.6054215149260059</v>
+      </c>
+      <c r="L10">
         <v>0.4463311764895089</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.5229939316187228</v>
       </c>
-      <c r="M10">
-        <v>0.5362506137834389</v>
-      </c>
       <c r="N10">
+        <v>0.493297870119265</v>
+      </c>
+      <c r="O10">
         <v>0.6686357471667335</v>
       </c>
-      <c r="O10">
-        <v>0.3733494480453081</v>
-      </c>
       <c r="P10">
-        <v>0.2920999309009599</v>
+        <v>0.2923801647899343</v>
       </c>
       <c r="Q10">
+        <v>0.2184795966502707</v>
+      </c>
+      <c r="R10">
         <v>0.3814014252173314</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.1252370996277198</v>
       </c>
-      <c r="S10">
-        <v>0.4091226765288107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0.1926681901736065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6172514746831622</v>
+        <v>0.681588777386152</v>
       </c>
       <c r="C11">
-        <v>0.3798141809399501</v>
+        <v>0.4908333433288155</v>
       </c>
       <c r="D11">
-        <v>0.402391255892978</v>
+        <v>0.3173654780923892</v>
       </c>
       <c r="E11">
-        <v>0.4349115374758891</v>
+        <v>0.7250767274241954</v>
       </c>
       <c r="F11">
-        <v>0.2503582747760102</v>
+        <v>0.4604040242877631</v>
       </c>
       <c r="G11">
-        <v>0.5588268758121626</v>
+        <v>0.7286371525803982</v>
       </c>
       <c r="H11">
-        <v>0.5781888905776567</v>
+        <v>0.6308792674053012</v>
       </c>
       <c r="I11">
-        <v>0.4177842752586814</v>
+        <v>0.6194794290512174</v>
       </c>
       <c r="J11">
-        <v>0.6481312725739641</v>
+        <v>0.6696932740759363</v>
       </c>
       <c r="K11">
-        <v>0.4410806853252436</v>
+        <v>0.921100278551532</v>
       </c>
       <c r="L11">
-        <v>0.5654739599629579</v>
+        <v>0.6236270784385129</v>
       </c>
       <c r="M11">
-        <v>0.381472443924785</v>
+        <v>0.551667995746943</v>
       </c>
       <c r="N11">
-        <v>0.3930843980458231</v>
+        <v>0.5740498514533702</v>
       </c>
       <c r="O11">
-        <v>0.3175421659797084</v>
+        <v>0.708573237569498</v>
       </c>
       <c r="P11">
-        <v>0.3945875049112839</v>
+        <v>0.4223733816473892</v>
       </c>
       <c r="Q11">
-        <v>0.6009155172340417</v>
+        <v>0.5137913385826771</v>
       </c>
       <c r="R11">
-        <v>0.1042734659155624</v>
+        <v>0.677041331868384</v>
       </c>
       <c r="S11">
-        <v>0.3627903740603806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.2623416280679854</v>
+      </c>
+      <c r="T11">
+        <v>0.3688022284122563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.5773496653336929</v>
+        <v>0.5777874635017493</v>
       </c>
       <c r="C12">
         <v>0.5464412756028001</v>
@@ -4685,7 +4898,7 @@
         <v>0.6156322417607769</v>
       </c>
       <c r="F12">
-        <v>0.4932233969302642</v>
+        <v>0.6093870363196096</v>
       </c>
       <c r="G12">
         <v>0.5693442360109026</v>
@@ -4700,39 +4913,42 @@
         <v>0.4447438297253209</v>
       </c>
       <c r="K12">
+        <v>0.5641052279207212</v>
+      </c>
+      <c r="L12">
         <v>0.8837178399484826</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.4823914823914824</v>
       </c>
-      <c r="M12">
-        <v>0.5043707632693177</v>
-      </c>
       <c r="N12">
+        <v>0.5786922975535076</v>
+      </c>
+      <c r="O12">
         <v>0.560602156079543</v>
       </c>
-      <c r="O12">
-        <v>0.6629846571156713</v>
-      </c>
       <c r="P12">
-        <v>0.4943332323491257</v>
+        <v>0.6143657285616426</v>
       </c>
       <c r="Q12">
+        <v>0.5990365397427355</v>
+      </c>
+      <c r="R12">
         <v>0.537785745137583</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.370638477153472</v>
       </c>
-      <c r="S12">
-        <v>0.4769125781418747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0.4222069304497419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5939891511508576</v>
+        <v>0.3121212121212121</v>
       </c>
       <c r="C13">
         <v>0.5015243577443769</v>
@@ -4744,7 +4960,7 @@
         <v>0.541593381538662</v>
       </c>
       <c r="F13">
-        <v>0.5021929824561404</v>
+        <v>0.3783109875735775</v>
       </c>
       <c r="G13">
         <v>0.5417014759120022</v>
@@ -4759,98 +4975,104 @@
         <v>0.6321292278739088</v>
       </c>
       <c r="K13">
+        <v>0.3370327102803738</v>
+      </c>
+      <c r="L13">
         <v>0.4955000550115524</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.8227116526085598</v>
       </c>
-      <c r="M13">
-        <v>0.4571169388091704</v>
-      </c>
       <c r="N13">
+        <v>0.4383968332508659</v>
+      </c>
+      <c r="O13">
         <v>0.5865605828220859</v>
       </c>
-      <c r="O13">
-        <v>0.5953654188948306</v>
-      </c>
       <c r="P13">
-        <v>0.5171106178320384</v>
+        <v>0.4926190651634613</v>
       </c>
       <c r="Q13">
+        <v>0.4563804310639753</v>
+      </c>
+      <c r="R13">
         <v>0.6244339951236503</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.1505197505197505</v>
       </c>
-      <c r="S13">
-        <v>0.4787600459242249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0.4171323767396699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.6239087069817594</v>
+        <v>0.5929177120772313</v>
       </c>
       <c r="C14">
-        <v>0.6346056858936043</v>
+        <v>0.5777099182113646</v>
       </c>
       <c r="D14">
-        <v>0.5565134099616857</v>
+        <v>0.5654435820353553</v>
       </c>
       <c r="E14">
-        <v>0.6552838539740027</v>
+        <v>0.6557616466426646</v>
       </c>
       <c r="F14">
-        <v>0.449104301332495</v>
+        <v>0.5180431959474172</v>
       </c>
       <c r="G14">
-        <v>0.5965543145704969</v>
+        <v>0.5487193362193363</v>
       </c>
       <c r="H14">
-        <v>0.6457618974308734</v>
+        <v>0.6205140866537013</v>
       </c>
       <c r="I14">
-        <v>0.5783570072076674</v>
+        <v>0.5569510561685695</v>
       </c>
       <c r="J14">
-        <v>0.6019878095206908</v>
+        <v>0.5734874122319973</v>
       </c>
       <c r="K14">
-        <v>0.4944578822680836</v>
+        <v>0.6300705299628364</v>
       </c>
       <c r="L14">
-        <v>0.6105957408572199</v>
+        <v>0.6077645599207229</v>
       </c>
       <c r="M14">
-        <v>0.7559982210712441</v>
+        <v>0.5216513711351469</v>
       </c>
       <c r="N14">
-        <v>0.6592153173485155</v>
+        <v>0.8481418470307498</v>
       </c>
       <c r="O14">
-        <v>0.6515189108526533</v>
+        <v>0.6051011502406185</v>
       </c>
       <c r="P14">
-        <v>0.5823597642473166</v>
+        <v>0.5662353148160432</v>
       </c>
       <c r="Q14">
-        <v>0.6402300041442188</v>
+        <v>0.6441012226592221</v>
       </c>
       <c r="R14">
-        <v>0.3865783410138249</v>
+        <v>0.5133906351816799</v>
       </c>
       <c r="S14">
-        <v>0.3845798898071626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>0.387718046007238</v>
+      </c>
+      <c r="T14">
+        <v>0.4404608567748483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7038565246906323</v>
+        <v>0.5722446772036063</v>
       </c>
       <c r="C15">
         <v>0.5841845081940436</v>
@@ -4862,7 +5084,7 @@
         <v>0.6080313807632818</v>
       </c>
       <c r="F15">
-        <v>0.336773777903578</v>
+        <v>0.5136871867369233</v>
       </c>
       <c r="G15">
         <v>0.6130344228707887</v>
@@ -4877,157 +5099,166 @@
         <v>0.5771518908349628</v>
       </c>
       <c r="K15">
+        <v>0.6148616111432375</v>
+      </c>
+      <c r="L15">
         <v>0.6276518285042113</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.5420385570668245</v>
       </c>
-      <c r="M15">
-        <v>0.6986193002236475</v>
-      </c>
       <c r="N15">
+        <v>0.5953523403319032</v>
+      </c>
+      <c r="O15">
         <v>0.9193822958083422</v>
       </c>
-      <c r="O15">
-        <v>0.3410128371875071</v>
-      </c>
       <c r="P15">
-        <v>0.4319274641373049</v>
+        <v>0.2949865121235464</v>
       </c>
       <c r="Q15">
+        <v>0.518864238982755</v>
+      </c>
+      <c r="R15">
         <v>0.6065765875735922</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.2643356140018188</v>
       </c>
-      <c r="S15">
-        <v>0.5470437402066273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0.2751597671435311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.5056818181818181</v>
+        <v>0.5372479660417403</v>
       </c>
       <c r="C16">
-        <v>0.4903075730162832</v>
+        <v>0.5525351841141315</v>
       </c>
       <c r="D16">
-        <v>0.6004791853848457</v>
+        <v>0.587344048555693</v>
       </c>
       <c r="E16">
-        <v>0.4565330557001562</v>
+        <v>0.639413563590574</v>
       </c>
       <c r="F16">
-        <v>0.4189158878504673</v>
+        <v>0.4379176449340799</v>
       </c>
       <c r="G16">
-        <v>0.5191156149239982</v>
+        <v>0.5588850174216029</v>
       </c>
       <c r="H16">
-        <v>0.5175282234105764</v>
+        <v>0.5381336405529954</v>
       </c>
       <c r="I16">
-        <v>0.5120192307692307</v>
+        <v>0.5464624295766682</v>
       </c>
       <c r="J16">
-        <v>0.4864583333333333</v>
+        <v>0.5245606128886886</v>
       </c>
       <c r="K16">
-        <v>0.4396135265700483</v>
+        <v>0.5821974580954135</v>
       </c>
       <c r="L16">
-        <v>0.5538461538461539</v>
+        <v>0.5532882882882882</v>
       </c>
       <c r="M16">
-        <v>0.5177991081550903</v>
+        <v>0.5238056393941866</v>
       </c>
       <c r="N16">
-        <v>0.5126436781609196</v>
+        <v>0.59240790655885</v>
       </c>
       <c r="O16">
-        <v>0.746303910419036</v>
+        <v>0.6534181607865819</v>
       </c>
       <c r="P16">
-        <v>0.523989898989899</v>
+        <v>0.8113523302996263</v>
       </c>
       <c r="Q16">
-        <v>0.4658567649652199</v>
+        <v>0.5590832490731379</v>
       </c>
       <c r="R16">
-        <v>0.2455284552845529</v>
+        <v>0.5226107626657502</v>
       </c>
       <c r="S16">
-        <v>0.5697243107769423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>0.3191941449594712</v>
+      </c>
+      <c r="T16">
+        <v>0.5096897913141567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.5571778233508606</v>
+        <v>0.5210700986821835</v>
       </c>
       <c r="C17">
-        <v>0.4080041939941181</v>
+        <v>0.4999026548672566</v>
       </c>
       <c r="D17">
-        <v>0.4658934316962652</v>
+        <v>0.6452638735274122</v>
       </c>
       <c r="E17">
-        <v>0.5660811617269423</v>
+        <v>0.6322876146081194</v>
       </c>
       <c r="F17">
-        <v>0.2423849764703914</v>
+        <v>0.3751479289940828</v>
       </c>
       <c r="G17">
-        <v>0.4675807445629005</v>
+        <v>0.5150697773866991</v>
       </c>
       <c r="H17">
-        <v>0.5553011838000124</v>
+        <v>0.5734658136459488</v>
       </c>
       <c r="I17">
-        <v>0.5214110954173177</v>
+        <v>0.5686662272028125</v>
       </c>
       <c r="J17">
-        <v>0.5695074998815025</v>
+        <v>0.5419047619047619</v>
       </c>
       <c r="K17">
-        <v>0.4665433821308244</v>
+        <v>0.5111234518416674</v>
       </c>
       <c r="L17">
-        <v>0.5955912041663306</v>
+        <v>0.6540650640209598</v>
       </c>
       <c r="M17">
-        <v>0.4979021782387202</v>
+        <v>0.4152952613481252</v>
       </c>
       <c r="N17">
-        <v>0.5441829778299914</v>
+        <v>0.5843431757410252</v>
       </c>
       <c r="O17">
-        <v>0.5594835704669557</v>
+        <v>0.6055370985603543</v>
       </c>
       <c r="P17">
-        <v>0.7874081846799581</v>
+        <v>0.5551945150729889</v>
       </c>
       <c r="Q17">
-        <v>0.5062525125396147</v>
+        <v>0.8390153321630425</v>
       </c>
       <c r="R17">
-        <v>0.3035929645116039</v>
+        <v>0.6082161707981606</v>
       </c>
       <c r="S17">
-        <v>0.5105750143328078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>0.6189833965181208</v>
+      </c>
+      <c r="T17">
+        <v>0.4715068581294841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.6646657009864152</v>
+        <v>0.5671828749285397</v>
       </c>
       <c r="C18">
         <v>0.6152567394094994</v>
@@ -5039,7 +5270,7 @@
         <v>0.7030558732429637</v>
       </c>
       <c r="F18">
-        <v>0.4337825588777202</v>
+        <v>0.3811668339430829</v>
       </c>
       <c r="G18">
         <v>0.5624227021076829</v>
@@ -5054,39 +5285,42 @@
         <v>0.6871915151358945</v>
       </c>
       <c r="K18">
+        <v>0.5611203254576749</v>
+      </c>
+      <c r="L18">
         <v>0.6572415402936418</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.5337815555789212</v>
       </c>
-      <c r="M18">
-        <v>0.5780774669093616</v>
-      </c>
       <c r="N18">
+        <v>0.606675502148921</v>
+      </c>
+      <c r="O18">
         <v>0.6275269797841617</v>
       </c>
-      <c r="O18">
-        <v>0.5982546327941065</v>
-      </c>
       <c r="P18">
-        <v>0.4906099106553685</v>
+        <v>0.6009059613984442</v>
       </c>
       <c r="Q18">
+        <v>0.6738648063914918</v>
+      </c>
+      <c r="R18">
         <v>0.9294158110709718</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.4665115240412303</v>
       </c>
-      <c r="S18">
-        <v>0.5204178279865892</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0.3286695300624769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.5534566443657353</v>
+        <v>0.4067460317460317</v>
       </c>
       <c r="C19">
         <v>0.3291666666666667</v>
@@ -5113,90 +5347,96 @@
         <v>0.6116883116883116</v>
       </c>
       <c r="K19">
+        <v>0.4436381228834059</v>
+      </c>
+      <c r="L19">
         <v>0.591993287786168</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.3866666666666667</v>
       </c>
-      <c r="M19">
-        <v>0.6239605355884426</v>
-      </c>
       <c r="N19">
+        <v>0.6107879428873613</v>
+      </c>
+      <c r="O19">
         <v>0.4913461538461539</v>
       </c>
-      <c r="O19">
-        <v>0.4890700697152309</v>
-      </c>
       <c r="P19">
-        <v>0.4885423728813559</v>
+        <v>0.445586671393123</v>
       </c>
       <c r="Q19">
+        <v>0.5432624113475177</v>
+      </c>
+      <c r="R19">
         <v>0.5447916666666667</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.8616541353383458</v>
       </c>
-      <c r="S19">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0.3774436090225564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>0.3800678166003243</v>
+        <v>0.4476676723137619</v>
       </c>
       <c r="C20">
-        <v>0.5474137931034483</v>
+        <v>0.537735365040275</v>
       </c>
       <c r="D20">
-        <v>0.4610536522301228</v>
+        <v>0.441802536231884</v>
       </c>
       <c r="E20">
-        <v>0.577371489136195</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="F20">
-        <v>0.4408893264418738</v>
+        <v>0.4252478368001833</v>
       </c>
       <c r="G20">
-        <v>0.6336842105263158</v>
+        <v>0.6074507389162561</v>
       </c>
       <c r="H20">
-        <v>0.4446060606060606</v>
+        <v>0.4558258642765686</v>
       </c>
       <c r="I20">
-        <v>0.4228977898213228</v>
+        <v>0.422554347826087</v>
       </c>
       <c r="J20">
-        <v>0.4197421076033793</v>
+        <v>0.4179778554778555</v>
       </c>
       <c r="K20">
-        <v>0.4441666666666667</v>
+        <v>0.4702312612760374</v>
       </c>
       <c r="L20">
-        <v>0.2487046632124352</v>
+        <v>0.4106586755978612</v>
       </c>
       <c r="M20">
-        <v>0.5880941859731077</v>
+        <v>0.2643561654516393</v>
       </c>
       <c r="N20">
-        <v>0.4650252240042166</v>
+        <v>0.4657142857142856</v>
       </c>
       <c r="O20">
-        <v>0.551480335837384</v>
+        <v>0.4713930348258706</v>
       </c>
       <c r="P20">
-        <v>0.3390804597701149</v>
+        <v>0.5034079844206426</v>
       </c>
       <c r="Q20">
-        <v>0.5581611022787493</v>
+        <v>0.3950177935943061</v>
       </c>
       <c r="R20">
-        <v>0.4441666666666667</v>
+        <v>0.533052554477202</v>
       </c>
       <c r="S20">
-        <v>0.6097488038277512</v>
+        <v>0.4306363476114931</v>
+      </c>
+      <c r="T20">
+        <v>0.6984357361715852</v>
       </c>
     </row>
   </sheetData>
